--- a/ScientificComputation/Projects/project2/Latex/gantt.xlsx
+++ b/ScientificComputation/Projects/project2/Latex/gantt.xlsx
@@ -1034,6 +1034,929 @@
           <a:r>
             <a:rPr lang="en-US" sz="2400" b="1"/>
             <a:t>12</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1104900" y="0"/>
+          <a:ext cx="317500" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4140200" y="825500"/>
+          <a:ext cx="317500" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1282700" y="533400"/>
+          <a:ext cx="317500" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>109</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>114</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6934200" y="1130300"/>
+          <a:ext cx="317500" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2641600" y="1422400"/>
+          <a:ext cx="317500" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="508000" y="1676400"/>
+          <a:ext cx="317500" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="812800" y="2298700"/>
+          <a:ext cx="317500" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
+            <a:t>8</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5041900" y="2019300"/>
+          <a:ext cx="317500" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
+            <a:t>7</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2755900" y="2590800"/>
+          <a:ext cx="317500" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
+            <a:t>9</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3314700" y="2870200"/>
+          <a:ext cx="558800" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
+            <a:t>10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4076700" y="254000"/>
+          <a:ext cx="317500" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4889500" y="3162300"/>
+          <a:ext cx="558800" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
+            <a:t>11</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>101</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>110</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6464300" y="3505200"/>
+          <a:ext cx="558800" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
+            <a:t>12</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>130</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="25400" y="4394200"/>
+          <a:ext cx="8255000" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 21"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4381500"/>
+          <a:ext cx="292100" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="0"/>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>125</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>154</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="TextBox 22"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7950200" y="4445000"/>
+          <a:ext cx="1879600" cy="1397000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="0"/>
+            <a:t>130</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1851,12 +2774,12 @@
   <dimension ref="A1:DZ13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="DH17" sqref="DH17"/>
+      <selection activeCell="ET23" sqref="ET23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0.83203125" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:130">
+    <row r="1" spans="1:130" ht="23" customHeight="1">
       <c r="A1" s="15">
         <v>1</v>
       </c>
@@ -2248,7 +3171,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:130">
+    <row r="2" spans="1:130" ht="23" customHeight="1">
       <c r="AP2" s="16"/>
       <c r="AQ2" s="16"/>
       <c r="AR2" s="16"/>
@@ -2301,7 +3224,7 @@
       <c r="CM2" s="16"/>
       <c r="CN2" s="16"/>
     </row>
-    <row r="3" spans="1:130">
+    <row r="3" spans="1:130" ht="23" customHeight="1">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -2353,7 +3276,7 @@
       <c r="AW3" s="17"/>
       <c r="AX3" s="17"/>
     </row>
-    <row r="4" spans="1:130">
+    <row r="4" spans="1:130" ht="23" customHeight="1">
       <c r="AY4" s="18"/>
       <c r="AZ4" s="18"/>
       <c r="BA4" s="18"/>
@@ -2391,7 +3314,7 @@
       <c r="CG4" s="18"/>
       <c r="CH4" s="18"/>
     </row>
-    <row r="5" spans="1:130">
+    <row r="5" spans="1:130" ht="23" customHeight="1">
       <c r="CO5" s="19"/>
       <c r="CP5" s="19"/>
       <c r="CQ5" s="19"/>
@@ -2431,7 +3354,7 @@
       <c r="DY5" s="19"/>
       <c r="DZ5" s="19"/>
     </row>
-    <row r="6" spans="1:130">
+    <row r="6" spans="1:130" ht="23" customHeight="1">
       <c r="V6" s="20"/>
       <c r="W6" s="20"/>
       <c r="X6" s="20"/>
@@ -2478,7 +3401,7 @@
       <c r="BM6" s="20"/>
       <c r="BN6" s="20"/>
     </row>
-    <row r="7" spans="1:130">
+    <row r="7" spans="1:130" ht="23" customHeight="1">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -2501,7 +3424,7 @@
       <c r="T7" s="21"/>
       <c r="U7" s="21"/>
     </row>
-    <row r="8" spans="1:130">
+    <row r="8" spans="1:130" ht="23" customHeight="1">
       <c r="BO8" s="22"/>
       <c r="BP8" s="22"/>
       <c r="BQ8" s="22"/>
@@ -2535,7 +3458,7 @@
       <c r="CS8" s="22"/>
       <c r="CT8" s="22"/>
     </row>
-    <row r="9" spans="1:130">
+    <row r="9" spans="1:130" ht="23" customHeight="1">
       <c r="A9" s="23"/>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
@@ -2569,7 +3492,7 @@
       <c r="AE9" s="23"/>
       <c r="AF9" s="23"/>
     </row>
-    <row r="10" spans="1:130">
+    <row r="10" spans="1:130" ht="23" customHeight="1">
       <c r="V10" s="24"/>
       <c r="W10" s="24"/>
       <c r="X10" s="24"/>
@@ -2620,7 +3543,7 @@
       <c r="BQ10" s="24"/>
       <c r="BR10" s="24"/>
     </row>
-    <row r="11" spans="1:130">
+    <row r="11" spans="1:130" ht="23" customHeight="1">
       <c r="AP11" s="25"/>
       <c r="AQ11" s="25"/>
       <c r="AR11" s="25"/>
@@ -2652,7 +3575,7 @@
       <c r="BR11" s="25"/>
       <c r="BS11" s="25"/>
     </row>
-    <row r="12" spans="1:130">
+    <row r="12" spans="1:130" ht="23" customHeight="1">
       <c r="BS12" s="26"/>
       <c r="BT12" s="26"/>
       <c r="BU12" s="26"/>
@@ -2673,7 +3596,7 @@
       <c r="CJ12" s="26"/>
       <c r="CK12" s="26"/>
     </row>
-    <row r="13" spans="1:130">
+    <row r="13" spans="1:130" ht="23" customHeight="1">
       <c r="CO13" s="27"/>
       <c r="CP13" s="27"/>
       <c r="CQ13" s="27"/>
@@ -2703,6 +3626,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/ScientificComputation/Projects/project2/Latex/gantt.xlsx
+++ b/ScientificComputation/Projects/project2/Latex/gantt.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +24,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -47,8 +50,24 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="27">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,8 +224,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -214,11 +239,128 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -275,8 +417,104 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="81">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1047,6 +1285,3051 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1104900" y="0"/>
+          <a:ext cx="317500" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>117</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>122</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4140200" y="825500"/>
+          <a:ext cx="317500" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1282700" y="533400"/>
+          <a:ext cx="317500" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>161</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>166</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6934200" y="1130300"/>
+          <a:ext cx="317500" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>98</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2641600" y="1422400"/>
+          <a:ext cx="317500" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="508000" y="1676400"/>
+          <a:ext cx="317500" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="812800" y="2298700"/>
+          <a:ext cx="317500" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
+            <a:t>8</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>131</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>136</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5041900" y="2019300"/>
+          <a:ext cx="317500" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
+            <a:t>7</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>95</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>100</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2755900" y="2590800"/>
+          <a:ext cx="317500" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
+            <a:t>9</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>104</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>113</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3314700" y="2870200"/>
+          <a:ext cx="558800" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
+            <a:t>10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>116</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>121</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4076700" y="254000"/>
+          <a:ext cx="317500" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>129</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>137</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4889500" y="3162300"/>
+          <a:ext cx="558800" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
+            <a:t>11</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>153</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>162</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6464300" y="3505200"/>
+          <a:ext cx="558800" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
+            <a:t>12</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 21"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="4406900"/>
+          <a:ext cx="292100" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="0"/>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>177</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>207</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>279400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="TextBox 22"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8293100" y="4432300"/>
+          <a:ext cx="1879600" cy="1397000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="0"/>
+            <a:t>130</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>113</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>132</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="TextBox 23"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4203700" y="4533900"/>
+          <a:ext cx="1231900" cy="736600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>time elapsed per unit</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>279400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="330200" y="444500"/>
+          <a:ext cx="0" cy="3924300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>182</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="317500" y="4406900"/>
+          <a:ext cx="8280400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="TextBox 34"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1689100" y="3594100"/>
+          <a:ext cx="787400" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>worker</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>279400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="TextBox 35"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2540000" y="2070100"/>
+          <a:ext cx="749300" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="TextBox 36"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2540000" y="2349500"/>
+          <a:ext cx="749300" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>279400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="TextBox 37"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2527300" y="2654300"/>
+          <a:ext cx="749300" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>279400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="TextBox 38"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2540000" y="2946400"/>
+          <a:ext cx="749300" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>279400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="TextBox 39"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2540000" y="3238500"/>
+          <a:ext cx="749300" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>279400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="TextBox 40"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2540000" y="3530600"/>
+          <a:ext cx="749300" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="TextBox 41"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2540000" y="3810000"/>
+          <a:ext cx="749300" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>7</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>279400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="TextBox 42"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2552700" y="4114800"/>
+          <a:ext cx="749300" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>8</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>279400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="TextBox 43"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2552700" y="4406900"/>
+          <a:ext cx="749300" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>9</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>279400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="TextBox 44"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2552700" y="4699000"/>
+          <a:ext cx="749300" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>279400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="TextBox 45"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2540000" y="4991100"/>
+          <a:ext cx="749300" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>11</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="TextBox 46"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2540000" y="5270500"/>
+          <a:ext cx="749300" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>12</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>279400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="TextBox 47"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2540000" y="5575300"/>
+          <a:ext cx="749300" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>13</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextBox 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1104900" y="0"/>
+          <a:ext cx="317500" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>95</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>100</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextBox 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4140200" y="825500"/>
+          <a:ext cx="317500" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="TextBox 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1282700" y="533400"/>
+          <a:ext cx="317500" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>121</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>126</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 21"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6934200" y="1130300"/>
+          <a:ext cx="317500" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="TextBox 22"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2641600" y="1422400"/>
+          <a:ext cx="317500" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="TextBox 23"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="508000" y="1676400"/>
+          <a:ext cx="317500" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>110</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>115</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="TextBox 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="812800" y="2298700"/>
+          <a:ext cx="317500" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
+            <a:t>8</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="TextBox 25"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5041900" y="2019300"/>
+          <a:ext cx="317500" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
+            <a:t>7</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="TextBox 26"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2755900" y="2590800"/>
+          <a:ext cx="317500" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
+            <a:t>9</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="TextBox 27"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3314700" y="2870200"/>
+          <a:ext cx="558800" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
+            <a:t>10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="TextBox 28"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4076700" y="254000"/>
+          <a:ext cx="317500" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="TextBox 29"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4889500" y="3162300"/>
+          <a:ext cx="558800" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
+            <a:t>11</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>113</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>122</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="TextBox 30"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6464300" y="3505200"/>
+          <a:ext cx="558800" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
+            <a:t>12</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>130</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12700" y="1828800"/>
+          <a:ext cx="8255000" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="TextBox 32"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="1905000"/>
+          <a:ext cx="292100" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="0"/>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>124</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>153</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="TextBox 33"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7874000" y="1905000"/>
+          <a:ext cx="1879600" cy="1397000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="0"/>
+            <a:t>130</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="TextBox 34"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3556000" y="1905000"/>
+          <a:ext cx="1168400" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>time elapsed</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="TextBox 35"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4000500" y="0"/>
+          <a:ext cx="469900" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>109</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>117</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="TextBox 36"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6921500" y="0"/>
+          <a:ext cx="558800" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -1814,7 +5097,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Straight Arrow Connector 15"/>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1862,7 +5145,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="TextBox 21"/>
+        <xdr:cNvPr id="16" name="TextBox 15"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1920,7 +5203,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="TextBox 22"/>
+        <xdr:cNvPr id="17" name="TextBox 16"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1957,6 +5240,70 @@
           <a:r>
             <a:rPr lang="en-US" sz="1800" b="0"/>
             <a:t>130</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="TextBox 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3759200" y="4495800"/>
+          <a:ext cx="1168400" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>time elapsed</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2771,10 +6118,2905 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:GQ20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="HF26" sqref="HF26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0.83203125" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="3" spans="1:199" ht="23" customHeight="1">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+    </row>
+    <row r="4" spans="1:199" ht="23" customHeight="1">
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+    </row>
+    <row r="5" spans="1:199" ht="23" customHeight="1">
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+    </row>
+    <row r="6" spans="1:199" ht="23" customHeight="1">
+      <c r="A6" s="28"/>
+      <c r="B6" s="29"/>
+    </row>
+    <row r="7" spans="1:199" ht="23" customHeight="1">
+      <c r="A7" s="28"/>
+      <c r="B7" s="29"/>
+    </row>
+    <row r="8" spans="1:199" ht="23" customHeight="1">
+      <c r="A8" s="28"/>
+      <c r="B8" s="29"/>
+      <c r="AX8" s="29"/>
+      <c r="AY8" s="29"/>
+      <c r="AZ8" s="29"/>
+      <c r="BA8" s="31">
+        <v>1</v>
+      </c>
+      <c r="BB8" s="31">
+        <v>2</v>
+      </c>
+      <c r="BC8" s="31">
+        <v>3</v>
+      </c>
+      <c r="BD8" s="31">
+        <v>4</v>
+      </c>
+      <c r="BE8" s="31">
+        <v>5</v>
+      </c>
+      <c r="BF8" s="31">
+        <v>6</v>
+      </c>
+      <c r="BG8" s="31">
+        <v>7</v>
+      </c>
+      <c r="BH8" s="31">
+        <v>8</v>
+      </c>
+      <c r="BI8" s="31">
+        <v>9</v>
+      </c>
+      <c r="BJ8" s="31">
+        <v>10</v>
+      </c>
+      <c r="BK8" s="31">
+        <v>11</v>
+      </c>
+      <c r="BL8" s="31">
+        <v>12</v>
+      </c>
+      <c r="BM8" s="31">
+        <v>13</v>
+      </c>
+      <c r="BN8" s="31">
+        <v>14</v>
+      </c>
+      <c r="BO8" s="31">
+        <v>15</v>
+      </c>
+      <c r="BP8" s="31">
+        <v>16</v>
+      </c>
+      <c r="BQ8" s="31">
+        <v>17</v>
+      </c>
+      <c r="BR8" s="31">
+        <v>18</v>
+      </c>
+      <c r="BS8" s="31">
+        <v>19</v>
+      </c>
+      <c r="BT8" s="31">
+        <v>20</v>
+      </c>
+      <c r="BU8" s="31">
+        <v>21</v>
+      </c>
+      <c r="BV8" s="31">
+        <v>22</v>
+      </c>
+      <c r="BW8" s="31">
+        <v>23</v>
+      </c>
+      <c r="BX8" s="31">
+        <v>24</v>
+      </c>
+      <c r="BY8" s="31">
+        <v>25</v>
+      </c>
+      <c r="BZ8" s="31">
+        <v>26</v>
+      </c>
+      <c r="CA8" s="31">
+        <v>27</v>
+      </c>
+      <c r="CB8" s="31">
+        <v>28</v>
+      </c>
+      <c r="CC8" s="31">
+        <v>29</v>
+      </c>
+      <c r="CD8" s="31">
+        <v>30</v>
+      </c>
+      <c r="CE8" s="31">
+        <v>31</v>
+      </c>
+      <c r="CF8" s="31">
+        <v>32</v>
+      </c>
+      <c r="CG8" s="31">
+        <v>33</v>
+      </c>
+      <c r="CH8" s="31">
+        <v>34</v>
+      </c>
+      <c r="CI8" s="31">
+        <v>35</v>
+      </c>
+      <c r="CJ8" s="31">
+        <v>36</v>
+      </c>
+      <c r="CK8" s="31">
+        <v>37</v>
+      </c>
+      <c r="CL8" s="31">
+        <v>38</v>
+      </c>
+      <c r="CM8" s="31">
+        <v>39</v>
+      </c>
+      <c r="CN8" s="31">
+        <v>40</v>
+      </c>
+      <c r="CO8" s="31">
+        <v>41</v>
+      </c>
+      <c r="CP8" s="29">
+        <v>42</v>
+      </c>
+      <c r="CQ8" s="29">
+        <v>43</v>
+      </c>
+      <c r="CR8" s="29">
+        <v>44</v>
+      </c>
+      <c r="CS8" s="29">
+        <v>45</v>
+      </c>
+      <c r="CT8" s="29">
+        <v>46</v>
+      </c>
+      <c r="CU8" s="29">
+        <v>47</v>
+      </c>
+      <c r="CV8" s="29">
+        <v>48</v>
+      </c>
+      <c r="CW8" s="29">
+        <v>49</v>
+      </c>
+      <c r="CX8" s="29">
+        <v>50</v>
+      </c>
+      <c r="CY8" s="29">
+        <v>51</v>
+      </c>
+      <c r="CZ8" s="29">
+        <v>52</v>
+      </c>
+      <c r="DA8" s="29">
+        <v>53</v>
+      </c>
+      <c r="DB8" s="29">
+        <v>54</v>
+      </c>
+      <c r="DC8" s="29">
+        <v>55</v>
+      </c>
+      <c r="DD8" s="29">
+        <v>56</v>
+      </c>
+      <c r="DE8" s="29">
+        <v>57</v>
+      </c>
+      <c r="DF8" s="29">
+        <v>58</v>
+      </c>
+      <c r="DG8" s="29">
+        <v>59</v>
+      </c>
+      <c r="DH8" s="29">
+        <v>60</v>
+      </c>
+      <c r="DI8" s="29">
+        <v>61</v>
+      </c>
+      <c r="DJ8" s="29">
+        <v>62</v>
+      </c>
+      <c r="DK8" s="29">
+        <v>63</v>
+      </c>
+      <c r="DL8" s="29">
+        <v>64</v>
+      </c>
+      <c r="DM8" s="29">
+        <v>65</v>
+      </c>
+      <c r="DN8" s="29">
+        <v>66</v>
+      </c>
+      <c r="DO8" s="29">
+        <v>67</v>
+      </c>
+      <c r="DP8" s="29">
+        <v>68</v>
+      </c>
+      <c r="DQ8" s="29">
+        <v>69</v>
+      </c>
+      <c r="DR8" s="29">
+        <v>70</v>
+      </c>
+      <c r="DS8" s="29">
+        <v>71</v>
+      </c>
+      <c r="DT8" s="29">
+        <v>72</v>
+      </c>
+      <c r="DU8" s="29">
+        <v>73</v>
+      </c>
+      <c r="DV8" s="29">
+        <v>74</v>
+      </c>
+      <c r="DW8" s="29">
+        <v>75</v>
+      </c>
+      <c r="DX8" s="29">
+        <v>76</v>
+      </c>
+      <c r="DY8" s="29">
+        <v>77</v>
+      </c>
+      <c r="DZ8" s="29">
+        <v>78</v>
+      </c>
+      <c r="EA8" s="29">
+        <v>79</v>
+      </c>
+      <c r="EB8" s="29">
+        <v>80</v>
+      </c>
+      <c r="EC8" s="29">
+        <v>81</v>
+      </c>
+      <c r="ED8" s="29">
+        <v>82</v>
+      </c>
+      <c r="EE8" s="29">
+        <v>83</v>
+      </c>
+      <c r="EF8" s="29">
+        <v>84</v>
+      </c>
+      <c r="EG8" s="29">
+        <v>85</v>
+      </c>
+      <c r="EH8" s="29">
+        <v>86</v>
+      </c>
+      <c r="EI8" s="29">
+        <v>87</v>
+      </c>
+      <c r="EJ8" s="29">
+        <v>88</v>
+      </c>
+      <c r="EK8" s="29">
+        <v>89</v>
+      </c>
+      <c r="EL8" s="29">
+        <v>90</v>
+      </c>
+      <c r="EM8" s="29">
+        <v>91</v>
+      </c>
+      <c r="EN8" s="29">
+        <v>92</v>
+      </c>
+      <c r="EO8" s="29">
+        <v>93</v>
+      </c>
+      <c r="EP8" s="29">
+        <v>94</v>
+      </c>
+      <c r="EQ8" s="29">
+        <v>95</v>
+      </c>
+      <c r="ER8" s="29">
+        <v>96</v>
+      </c>
+      <c r="ES8" s="29">
+        <v>97</v>
+      </c>
+      <c r="ET8" s="29">
+        <v>98</v>
+      </c>
+      <c r="EU8" s="29">
+        <v>99</v>
+      </c>
+      <c r="EV8" s="29">
+        <v>100</v>
+      </c>
+      <c r="EW8" s="29">
+        <v>101</v>
+      </c>
+      <c r="EX8" s="29">
+        <v>102</v>
+      </c>
+      <c r="EY8" s="29">
+        <v>103</v>
+      </c>
+      <c r="EZ8" s="29">
+        <v>104</v>
+      </c>
+      <c r="FA8" s="29">
+        <v>105</v>
+      </c>
+      <c r="FB8" s="29">
+        <v>106</v>
+      </c>
+      <c r="FC8" s="29">
+        <v>107</v>
+      </c>
+      <c r="FD8" s="29">
+        <v>108</v>
+      </c>
+      <c r="FE8" s="29">
+        <v>109</v>
+      </c>
+      <c r="FF8" s="29">
+        <v>110</v>
+      </c>
+      <c r="FG8" s="29">
+        <v>111</v>
+      </c>
+      <c r="FH8" s="29">
+        <v>112</v>
+      </c>
+      <c r="FI8" s="29">
+        <v>113</v>
+      </c>
+      <c r="FJ8" s="29">
+        <v>114</v>
+      </c>
+      <c r="FK8" s="29">
+        <v>115</v>
+      </c>
+      <c r="FL8" s="29">
+        <v>116</v>
+      </c>
+      <c r="FM8" s="29">
+        <v>117</v>
+      </c>
+      <c r="FN8" s="29">
+        <v>118</v>
+      </c>
+      <c r="FO8" s="29">
+        <v>119</v>
+      </c>
+      <c r="FP8" s="29">
+        <v>120</v>
+      </c>
+      <c r="FQ8" s="29">
+        <v>121</v>
+      </c>
+      <c r="FR8" s="29">
+        <v>122</v>
+      </c>
+      <c r="FS8" s="29">
+        <v>123</v>
+      </c>
+      <c r="FT8" s="29">
+        <v>124</v>
+      </c>
+      <c r="FU8" s="29">
+        <v>125</v>
+      </c>
+      <c r="FV8" s="29">
+        <v>126</v>
+      </c>
+      <c r="FW8" s="29">
+        <v>127</v>
+      </c>
+      <c r="FX8" s="29">
+        <v>128</v>
+      </c>
+      <c r="FY8" s="29">
+        <v>129</v>
+      </c>
+      <c r="FZ8" s="29">
+        <v>130</v>
+      </c>
+      <c r="GA8" s="29"/>
+      <c r="GB8" s="29"/>
+      <c r="GC8" s="29"/>
+      <c r="GD8" s="29"/>
+      <c r="GE8" s="29"/>
+      <c r="GF8" s="29"/>
+      <c r="GG8" s="29"/>
+      <c r="GH8" s="29"/>
+      <c r="GI8" s="29"/>
+      <c r="GJ8" s="29"/>
+      <c r="GK8" s="29"/>
+      <c r="GL8" s="29"/>
+      <c r="GM8" s="29"/>
+      <c r="GN8" s="29"/>
+      <c r="GO8" s="29"/>
+      <c r="GP8" s="29"/>
+      <c r="GQ8" s="30"/>
+    </row>
+    <row r="9" spans="1:199" ht="23" customHeight="1">
+      <c r="A9" s="28"/>
+      <c r="B9" s="29"/>
+      <c r="AX9" s="29"/>
+      <c r="AY9" s="29"/>
+      <c r="AZ9" s="29"/>
+      <c r="BA9" s="29"/>
+      <c r="BB9" s="29"/>
+      <c r="BC9" s="29"/>
+      <c r="BD9" s="29"/>
+      <c r="BE9" s="29"/>
+      <c r="BF9" s="29"/>
+      <c r="BG9" s="29"/>
+      <c r="BH9" s="29"/>
+      <c r="BI9" s="29"/>
+      <c r="BJ9" s="29"/>
+      <c r="BK9" s="29"/>
+      <c r="BL9" s="29"/>
+      <c r="BM9" s="29"/>
+      <c r="BN9" s="29"/>
+      <c r="BO9" s="29"/>
+      <c r="BP9" s="29"/>
+      <c r="BQ9" s="29"/>
+      <c r="BR9" s="29"/>
+      <c r="BS9" s="29"/>
+      <c r="BT9" s="29"/>
+      <c r="BU9" s="29"/>
+      <c r="BV9" s="29"/>
+      <c r="BW9" s="29"/>
+      <c r="BX9" s="29"/>
+      <c r="BY9" s="29"/>
+      <c r="BZ9" s="29"/>
+      <c r="CA9" s="29"/>
+      <c r="CB9" s="29"/>
+      <c r="CC9" s="29"/>
+      <c r="CD9" s="29"/>
+      <c r="CE9" s="29"/>
+      <c r="CF9" s="29"/>
+      <c r="CG9" s="29"/>
+      <c r="CH9" s="29"/>
+      <c r="CI9" s="29"/>
+      <c r="CJ9" s="29"/>
+      <c r="CK9" s="29"/>
+      <c r="CL9" s="29"/>
+      <c r="CM9" s="29"/>
+      <c r="CN9" s="29"/>
+      <c r="CO9" s="29"/>
+      <c r="CP9" s="32"/>
+      <c r="CQ9" s="32"/>
+      <c r="CR9" s="32"/>
+      <c r="CS9" s="32"/>
+      <c r="CT9" s="32"/>
+      <c r="CU9" s="32"/>
+      <c r="CV9" s="32"/>
+      <c r="CW9" s="32"/>
+      <c r="CX9" s="32"/>
+      <c r="CY9" s="32"/>
+      <c r="CZ9" s="32"/>
+      <c r="DA9" s="32"/>
+      <c r="DB9" s="32"/>
+      <c r="DC9" s="32"/>
+      <c r="DD9" s="32"/>
+      <c r="DE9" s="32"/>
+      <c r="DF9" s="32"/>
+      <c r="DG9" s="32"/>
+      <c r="DH9" s="32"/>
+      <c r="DI9" s="32"/>
+      <c r="DJ9" s="32"/>
+      <c r="DK9" s="32"/>
+      <c r="DL9" s="32"/>
+      <c r="DM9" s="32"/>
+      <c r="DN9" s="32"/>
+      <c r="DO9" s="32"/>
+      <c r="DP9" s="32"/>
+      <c r="DQ9" s="32"/>
+      <c r="DR9" s="32"/>
+      <c r="DS9" s="32"/>
+      <c r="DT9" s="32"/>
+      <c r="DU9" s="32"/>
+      <c r="DV9" s="32"/>
+      <c r="DW9" s="32"/>
+      <c r="DX9" s="32"/>
+      <c r="DY9" s="32"/>
+      <c r="DZ9" s="32"/>
+      <c r="EA9" s="32"/>
+      <c r="EB9" s="32"/>
+      <c r="EC9" s="32"/>
+      <c r="ED9" s="32"/>
+      <c r="EE9" s="32"/>
+      <c r="EF9" s="32"/>
+      <c r="EG9" s="32"/>
+      <c r="EH9" s="32"/>
+      <c r="EI9" s="32"/>
+      <c r="EJ9" s="32"/>
+      <c r="EK9" s="32"/>
+      <c r="EL9" s="32"/>
+      <c r="EM9" s="32"/>
+      <c r="EN9" s="32"/>
+      <c r="EO9" s="29"/>
+      <c r="EP9" s="29"/>
+      <c r="EQ9" s="29"/>
+      <c r="ER9" s="29"/>
+      <c r="ES9" s="29"/>
+      <c r="ET9" s="29"/>
+      <c r="EU9" s="29"/>
+      <c r="EV9" s="29"/>
+      <c r="EW9" s="29"/>
+      <c r="EX9" s="29"/>
+      <c r="EY9" s="29"/>
+      <c r="EZ9" s="29"/>
+      <c r="FA9" s="29"/>
+      <c r="FB9" s="29"/>
+      <c r="FC9" s="29"/>
+      <c r="FD9" s="29"/>
+      <c r="FE9" s="29"/>
+      <c r="FF9" s="29"/>
+      <c r="FG9" s="29"/>
+      <c r="FH9" s="29"/>
+      <c r="FI9" s="29"/>
+      <c r="FJ9" s="29"/>
+      <c r="FK9" s="29"/>
+      <c r="FL9" s="29"/>
+      <c r="FM9" s="29"/>
+      <c r="FN9" s="29"/>
+      <c r="FO9" s="29"/>
+      <c r="FP9" s="29"/>
+      <c r="FQ9" s="29"/>
+      <c r="FR9" s="29"/>
+      <c r="FS9" s="29"/>
+      <c r="FT9" s="29"/>
+      <c r="FU9" s="29"/>
+      <c r="FV9" s="29"/>
+      <c r="FW9" s="29"/>
+      <c r="FX9" s="29"/>
+      <c r="FY9" s="29"/>
+      <c r="FZ9" s="29"/>
+      <c r="GA9" s="29"/>
+      <c r="GB9" s="29"/>
+      <c r="GC9" s="29"/>
+      <c r="GD9" s="29"/>
+      <c r="GE9" s="29"/>
+      <c r="GF9" s="29"/>
+      <c r="GG9" s="29"/>
+      <c r="GH9" s="29"/>
+      <c r="GI9" s="29"/>
+      <c r="GJ9" s="29"/>
+      <c r="GK9" s="29"/>
+      <c r="GL9" s="29"/>
+      <c r="GM9" s="29"/>
+      <c r="GN9" s="29"/>
+      <c r="GO9" s="29"/>
+      <c r="GP9" s="29"/>
+      <c r="GQ9" s="30"/>
+    </row>
+    <row r="10" spans="1:199" ht="23" customHeight="1">
+      <c r="A10" s="28"/>
+      <c r="B10" s="29"/>
+      <c r="AX10" s="29"/>
+      <c r="AY10" s="29"/>
+      <c r="AZ10" s="29"/>
+      <c r="BA10" s="33"/>
+      <c r="BB10" s="33"/>
+      <c r="BC10" s="33"/>
+      <c r="BD10" s="33"/>
+      <c r="BE10" s="33"/>
+      <c r="BF10" s="33"/>
+      <c r="BG10" s="33"/>
+      <c r="BH10" s="33"/>
+      <c r="BI10" s="33"/>
+      <c r="BJ10" s="33"/>
+      <c r="BK10" s="33"/>
+      <c r="BL10" s="33"/>
+      <c r="BM10" s="33"/>
+      <c r="BN10" s="33"/>
+      <c r="BO10" s="33"/>
+      <c r="BP10" s="33"/>
+      <c r="BQ10" s="33"/>
+      <c r="BR10" s="33"/>
+      <c r="BS10" s="33"/>
+      <c r="BT10" s="33"/>
+      <c r="BU10" s="33"/>
+      <c r="BV10" s="33"/>
+      <c r="BW10" s="33"/>
+      <c r="BX10" s="33"/>
+      <c r="BY10" s="33"/>
+      <c r="BZ10" s="33"/>
+      <c r="CA10" s="33"/>
+      <c r="CB10" s="33"/>
+      <c r="CC10" s="33"/>
+      <c r="CD10" s="33"/>
+      <c r="CE10" s="33"/>
+      <c r="CF10" s="33"/>
+      <c r="CG10" s="33"/>
+      <c r="CH10" s="33"/>
+      <c r="CI10" s="33"/>
+      <c r="CJ10" s="33"/>
+      <c r="CK10" s="33"/>
+      <c r="CL10" s="33"/>
+      <c r="CM10" s="33"/>
+      <c r="CN10" s="33"/>
+      <c r="CO10" s="33"/>
+      <c r="CP10" s="33"/>
+      <c r="CQ10" s="33"/>
+      <c r="CR10" s="33"/>
+      <c r="CS10" s="33"/>
+      <c r="CT10" s="33"/>
+      <c r="CU10" s="33"/>
+      <c r="CV10" s="33"/>
+      <c r="CW10" s="33"/>
+      <c r="CX10" s="33"/>
+      <c r="CY10" s="29"/>
+      <c r="CZ10" s="29"/>
+      <c r="DA10" s="29"/>
+      <c r="DB10" s="29"/>
+      <c r="DC10" s="29"/>
+      <c r="DD10" s="29"/>
+      <c r="DE10" s="29"/>
+      <c r="DF10" s="29"/>
+      <c r="DG10" s="29"/>
+      <c r="DH10" s="29"/>
+      <c r="DI10" s="29"/>
+      <c r="DJ10" s="29"/>
+      <c r="DK10" s="29"/>
+      <c r="DL10" s="29"/>
+      <c r="DM10" s="29"/>
+      <c r="DN10" s="29"/>
+      <c r="DO10" s="29"/>
+      <c r="DP10" s="29"/>
+      <c r="DQ10" s="29"/>
+      <c r="DR10" s="29"/>
+      <c r="DS10" s="29"/>
+      <c r="DT10" s="29"/>
+      <c r="DU10" s="29"/>
+      <c r="DV10" s="29"/>
+      <c r="DW10" s="29"/>
+      <c r="DX10" s="29"/>
+      <c r="DY10" s="29"/>
+      <c r="DZ10" s="29"/>
+      <c r="EA10" s="29"/>
+      <c r="EB10" s="29"/>
+      <c r="EC10" s="29"/>
+      <c r="ED10" s="29"/>
+      <c r="EE10" s="29"/>
+      <c r="EF10" s="29"/>
+      <c r="EG10" s="29"/>
+      <c r="EH10" s="29"/>
+      <c r="EI10" s="29"/>
+      <c r="EJ10" s="29"/>
+      <c r="EK10" s="29"/>
+      <c r="EL10" s="29"/>
+      <c r="EM10" s="29"/>
+      <c r="EN10" s="29"/>
+      <c r="EO10" s="29"/>
+      <c r="EP10" s="29"/>
+      <c r="EQ10" s="29"/>
+      <c r="ER10" s="29"/>
+      <c r="ES10" s="29"/>
+      <c r="ET10" s="29"/>
+      <c r="EU10" s="29"/>
+      <c r="EV10" s="29"/>
+      <c r="EW10" s="29"/>
+      <c r="EX10" s="29"/>
+      <c r="EY10" s="29"/>
+      <c r="EZ10" s="29"/>
+      <c r="FA10" s="29"/>
+      <c r="FB10" s="29"/>
+      <c r="FC10" s="29"/>
+      <c r="FD10" s="29"/>
+      <c r="FE10" s="29"/>
+      <c r="FF10" s="29"/>
+      <c r="FG10" s="29"/>
+      <c r="FH10" s="29"/>
+      <c r="FI10" s="29"/>
+      <c r="FJ10" s="29"/>
+      <c r="FK10" s="29"/>
+      <c r="FL10" s="29"/>
+      <c r="FM10" s="29"/>
+      <c r="FN10" s="29"/>
+      <c r="FO10" s="29"/>
+      <c r="FP10" s="29"/>
+      <c r="FQ10" s="29"/>
+      <c r="FR10" s="29"/>
+      <c r="FS10" s="29"/>
+      <c r="FT10" s="29"/>
+      <c r="FU10" s="29"/>
+      <c r="FV10" s="29"/>
+      <c r="FW10" s="29"/>
+      <c r="FX10" s="29"/>
+      <c r="FY10" s="29"/>
+      <c r="FZ10" s="29"/>
+      <c r="GA10" s="29"/>
+      <c r="GB10" s="29"/>
+      <c r="GC10" s="29"/>
+      <c r="GD10" s="29"/>
+      <c r="GE10" s="29"/>
+      <c r="GF10" s="29"/>
+      <c r="GG10" s="29"/>
+      <c r="GH10" s="29"/>
+      <c r="GI10" s="29"/>
+      <c r="GJ10" s="29"/>
+      <c r="GK10" s="29"/>
+      <c r="GL10" s="29"/>
+      <c r="GM10" s="29"/>
+      <c r="GN10" s="29"/>
+      <c r="GO10" s="29"/>
+      <c r="GP10" s="29"/>
+      <c r="GQ10" s="30"/>
+    </row>
+    <row r="11" spans="1:199" ht="23" customHeight="1">
+      <c r="A11" s="28"/>
+      <c r="B11" s="29"/>
+      <c r="AX11" s="29"/>
+      <c r="AY11" s="29"/>
+      <c r="AZ11" s="29"/>
+      <c r="BA11" s="29"/>
+      <c r="BB11" s="29"/>
+      <c r="BC11" s="29"/>
+      <c r="BD11" s="29"/>
+      <c r="BE11" s="29"/>
+      <c r="BF11" s="29"/>
+      <c r="BG11" s="29"/>
+      <c r="BH11" s="29"/>
+      <c r="BI11" s="29"/>
+      <c r="BJ11" s="29"/>
+      <c r="BK11" s="29"/>
+      <c r="BL11" s="29"/>
+      <c r="BM11" s="29"/>
+      <c r="BN11" s="29"/>
+      <c r="BO11" s="29"/>
+      <c r="BP11" s="29"/>
+      <c r="BQ11" s="29"/>
+      <c r="BR11" s="29"/>
+      <c r="BS11" s="29"/>
+      <c r="BT11" s="29"/>
+      <c r="BU11" s="29"/>
+      <c r="BV11" s="29"/>
+      <c r="BW11" s="29"/>
+      <c r="BX11" s="29"/>
+      <c r="BY11" s="29"/>
+      <c r="BZ11" s="29"/>
+      <c r="CA11" s="29"/>
+      <c r="CB11" s="29"/>
+      <c r="CC11" s="29"/>
+      <c r="CD11" s="29"/>
+      <c r="CE11" s="29"/>
+      <c r="CF11" s="29"/>
+      <c r="CG11" s="29"/>
+      <c r="CH11" s="29"/>
+      <c r="CI11" s="29"/>
+      <c r="CJ11" s="29"/>
+      <c r="CK11" s="29"/>
+      <c r="CL11" s="29"/>
+      <c r="CM11" s="29"/>
+      <c r="CN11" s="29"/>
+      <c r="CO11" s="29"/>
+      <c r="CP11" s="29"/>
+      <c r="CQ11" s="29"/>
+      <c r="CR11" s="29"/>
+      <c r="CS11" s="29"/>
+      <c r="CT11" s="29"/>
+      <c r="CU11" s="29"/>
+      <c r="CV11" s="29"/>
+      <c r="CW11" s="29"/>
+      <c r="CX11" s="29"/>
+      <c r="CY11" s="34"/>
+      <c r="CZ11" s="34"/>
+      <c r="DA11" s="34"/>
+      <c r="DB11" s="34"/>
+      <c r="DC11" s="34"/>
+      <c r="DD11" s="34"/>
+      <c r="DE11" s="34"/>
+      <c r="DF11" s="34"/>
+      <c r="DG11" s="34"/>
+      <c r="DH11" s="34"/>
+      <c r="DI11" s="34"/>
+      <c r="DJ11" s="34"/>
+      <c r="DK11" s="34"/>
+      <c r="DL11" s="34"/>
+      <c r="DM11" s="34"/>
+      <c r="DN11" s="34"/>
+      <c r="DO11" s="34"/>
+      <c r="DP11" s="34"/>
+      <c r="DQ11" s="34"/>
+      <c r="DR11" s="34"/>
+      <c r="DS11" s="34"/>
+      <c r="DT11" s="34"/>
+      <c r="DU11" s="34"/>
+      <c r="DV11" s="34"/>
+      <c r="DW11" s="34"/>
+      <c r="DX11" s="34"/>
+      <c r="DY11" s="34"/>
+      <c r="DZ11" s="34"/>
+      <c r="EA11" s="34"/>
+      <c r="EB11" s="34"/>
+      <c r="EC11" s="34"/>
+      <c r="ED11" s="34"/>
+      <c r="EE11" s="34"/>
+      <c r="EF11" s="34"/>
+      <c r="EG11" s="34"/>
+      <c r="EH11" s="34"/>
+      <c r="EI11" s="29"/>
+      <c r="EJ11" s="29"/>
+      <c r="EK11" s="29"/>
+      <c r="EL11" s="29"/>
+      <c r="EM11" s="29"/>
+      <c r="EN11" s="29"/>
+      <c r="EO11" s="29"/>
+      <c r="EP11" s="29"/>
+      <c r="EQ11" s="29"/>
+      <c r="ER11" s="29"/>
+      <c r="ES11" s="29"/>
+      <c r="ET11" s="29"/>
+      <c r="EU11" s="29"/>
+      <c r="EV11" s="29"/>
+      <c r="EW11" s="29"/>
+      <c r="EX11" s="29"/>
+      <c r="EY11" s="29"/>
+      <c r="EZ11" s="29"/>
+      <c r="FA11" s="29"/>
+      <c r="FB11" s="29"/>
+      <c r="FC11" s="29"/>
+      <c r="FD11" s="29"/>
+      <c r="FE11" s="29"/>
+      <c r="FF11" s="29"/>
+      <c r="FG11" s="29"/>
+      <c r="FH11" s="29"/>
+      <c r="FI11" s="29"/>
+      <c r="FJ11" s="29"/>
+      <c r="FK11" s="29"/>
+      <c r="FL11" s="29"/>
+      <c r="FM11" s="29"/>
+      <c r="FN11" s="29"/>
+      <c r="FO11" s="29"/>
+      <c r="FP11" s="29"/>
+      <c r="FQ11" s="29"/>
+      <c r="FR11" s="29"/>
+      <c r="FS11" s="29"/>
+      <c r="FT11" s="29"/>
+      <c r="FU11" s="29"/>
+      <c r="FV11" s="29"/>
+      <c r="FW11" s="29"/>
+      <c r="FX11" s="29"/>
+      <c r="FY11" s="29"/>
+      <c r="FZ11" s="29"/>
+      <c r="GA11" s="29"/>
+      <c r="GB11" s="29"/>
+      <c r="GC11" s="29"/>
+      <c r="GD11" s="29"/>
+      <c r="GE11" s="29"/>
+      <c r="GF11" s="29"/>
+      <c r="GG11" s="29"/>
+      <c r="GH11" s="29"/>
+      <c r="GI11" s="29"/>
+      <c r="GJ11" s="29"/>
+      <c r="GK11" s="29"/>
+      <c r="GL11" s="29"/>
+      <c r="GM11" s="29"/>
+      <c r="GN11" s="29"/>
+      <c r="GO11" s="29"/>
+      <c r="GP11" s="29"/>
+      <c r="GQ11" s="30"/>
+    </row>
+    <row r="12" spans="1:199" ht="23" customHeight="1">
+      <c r="A12" s="28"/>
+      <c r="B12" s="29"/>
+      <c r="AX12" s="29"/>
+      <c r="AY12" s="29"/>
+      <c r="AZ12" s="29"/>
+      <c r="BA12" s="29"/>
+      <c r="BB12" s="29"/>
+      <c r="BC12" s="29"/>
+      <c r="BD12" s="29"/>
+      <c r="BE12" s="29"/>
+      <c r="BF12" s="29"/>
+      <c r="BG12" s="29"/>
+      <c r="BH12" s="29"/>
+      <c r="BI12" s="29"/>
+      <c r="BJ12" s="29"/>
+      <c r="BK12" s="29"/>
+      <c r="BL12" s="29"/>
+      <c r="BM12" s="29"/>
+      <c r="BN12" s="29"/>
+      <c r="BO12" s="29"/>
+      <c r="BP12" s="29"/>
+      <c r="BQ12" s="29"/>
+      <c r="BR12" s="29"/>
+      <c r="BS12" s="29"/>
+      <c r="BT12" s="29"/>
+      <c r="BU12" s="29"/>
+      <c r="BV12" s="29"/>
+      <c r="BW12" s="29"/>
+      <c r="BX12" s="29"/>
+      <c r="BY12" s="29"/>
+      <c r="BZ12" s="29"/>
+      <c r="CA12" s="29"/>
+      <c r="CB12" s="29"/>
+      <c r="CC12" s="29"/>
+      <c r="CD12" s="29"/>
+      <c r="CE12" s="29"/>
+      <c r="CF12" s="29"/>
+      <c r="CG12" s="29"/>
+      <c r="CH12" s="29"/>
+      <c r="CI12" s="29"/>
+      <c r="CJ12" s="29"/>
+      <c r="CK12" s="29"/>
+      <c r="CL12" s="29"/>
+      <c r="CM12" s="29"/>
+      <c r="CN12" s="29"/>
+      <c r="CO12" s="29"/>
+      <c r="CP12" s="29"/>
+      <c r="CQ12" s="29"/>
+      <c r="CR12" s="29"/>
+      <c r="CS12" s="29"/>
+      <c r="CT12" s="29"/>
+      <c r="CU12" s="29"/>
+      <c r="CV12" s="29"/>
+      <c r="CW12" s="29"/>
+      <c r="CX12" s="29"/>
+      <c r="CY12" s="29"/>
+      <c r="CZ12" s="29"/>
+      <c r="DA12" s="29"/>
+      <c r="DB12" s="29"/>
+      <c r="DC12" s="29"/>
+      <c r="DD12" s="29"/>
+      <c r="DE12" s="29"/>
+      <c r="DF12" s="29"/>
+      <c r="DG12" s="29"/>
+      <c r="DH12" s="29"/>
+      <c r="DI12" s="29"/>
+      <c r="DJ12" s="29"/>
+      <c r="DK12" s="29"/>
+      <c r="DL12" s="29"/>
+      <c r="DM12" s="29"/>
+      <c r="DN12" s="29"/>
+      <c r="DO12" s="29"/>
+      <c r="DP12" s="29"/>
+      <c r="DQ12" s="29"/>
+      <c r="DR12" s="29"/>
+      <c r="DS12" s="29"/>
+      <c r="DT12" s="29"/>
+      <c r="DU12" s="29"/>
+      <c r="DV12" s="29"/>
+      <c r="DW12" s="29"/>
+      <c r="DX12" s="29"/>
+      <c r="DY12" s="29"/>
+      <c r="DZ12" s="29"/>
+      <c r="EA12" s="29"/>
+      <c r="EB12" s="29"/>
+      <c r="EC12" s="29"/>
+      <c r="ED12" s="29"/>
+      <c r="EE12" s="29"/>
+      <c r="EF12" s="29"/>
+      <c r="EG12" s="29"/>
+      <c r="EH12" s="29"/>
+      <c r="EI12" s="29"/>
+      <c r="EJ12" s="29"/>
+      <c r="EK12" s="29"/>
+      <c r="EL12" s="29"/>
+      <c r="EM12" s="29"/>
+      <c r="EN12" s="29"/>
+      <c r="EO12" s="35"/>
+      <c r="EP12" s="35"/>
+      <c r="EQ12" s="35"/>
+      <c r="ER12" s="35"/>
+      <c r="ES12" s="35"/>
+      <c r="ET12" s="35"/>
+      <c r="EU12" s="35"/>
+      <c r="EV12" s="35"/>
+      <c r="EW12" s="35"/>
+      <c r="EX12" s="35"/>
+      <c r="EY12" s="35"/>
+      <c r="EZ12" s="35"/>
+      <c r="FA12" s="35"/>
+      <c r="FB12" s="35"/>
+      <c r="FC12" s="35"/>
+      <c r="FD12" s="35"/>
+      <c r="FE12" s="35"/>
+      <c r="FF12" s="35"/>
+      <c r="FG12" s="35"/>
+      <c r="FH12" s="35"/>
+      <c r="FI12" s="35"/>
+      <c r="FJ12" s="35"/>
+      <c r="FK12" s="35"/>
+      <c r="FL12" s="35"/>
+      <c r="FM12" s="35"/>
+      <c r="FN12" s="35"/>
+      <c r="FO12" s="35"/>
+      <c r="FP12" s="35"/>
+      <c r="FQ12" s="35"/>
+      <c r="FR12" s="35"/>
+      <c r="FS12" s="35"/>
+      <c r="FT12" s="35"/>
+      <c r="FU12" s="35"/>
+      <c r="FV12" s="35"/>
+      <c r="FW12" s="35"/>
+      <c r="FX12" s="35"/>
+      <c r="FY12" s="35"/>
+      <c r="FZ12" s="35"/>
+      <c r="GA12" s="29"/>
+      <c r="GB12" s="29"/>
+      <c r="GC12" s="29"/>
+      <c r="GD12" s="29"/>
+      <c r="GE12" s="29"/>
+      <c r="GF12" s="29"/>
+      <c r="GG12" s="29"/>
+      <c r="GH12" s="29"/>
+      <c r="GI12" s="29"/>
+      <c r="GJ12" s="29"/>
+      <c r="GK12" s="29"/>
+      <c r="GL12" s="29"/>
+      <c r="GM12" s="29"/>
+      <c r="GN12" s="29"/>
+      <c r="GO12" s="29"/>
+      <c r="GP12" s="29"/>
+      <c r="GQ12" s="30"/>
+    </row>
+    <row r="13" spans="1:199" ht="23" customHeight="1">
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="AX13" s="29"/>
+      <c r="AY13" s="29"/>
+      <c r="AZ13" s="29"/>
+      <c r="BA13" s="29"/>
+      <c r="BB13" s="29"/>
+      <c r="BC13" s="29"/>
+      <c r="BD13" s="29"/>
+      <c r="BE13" s="29"/>
+      <c r="BF13" s="29"/>
+      <c r="BG13" s="29"/>
+      <c r="BH13" s="29"/>
+      <c r="BI13" s="29"/>
+      <c r="BJ13" s="29"/>
+      <c r="BK13" s="29"/>
+      <c r="BL13" s="29"/>
+      <c r="BM13" s="29"/>
+      <c r="BN13" s="29"/>
+      <c r="BO13" s="29"/>
+      <c r="BP13" s="29"/>
+      <c r="BQ13" s="29"/>
+      <c r="BR13" s="29"/>
+      <c r="BS13" s="29"/>
+      <c r="BT13" s="29"/>
+      <c r="BU13" s="29"/>
+      <c r="BV13" s="36"/>
+      <c r="BW13" s="36"/>
+      <c r="BX13" s="36"/>
+      <c r="BY13" s="36"/>
+      <c r="BZ13" s="36"/>
+      <c r="CA13" s="36"/>
+      <c r="CB13" s="36"/>
+      <c r="CC13" s="36"/>
+      <c r="CD13" s="36"/>
+      <c r="CE13" s="36"/>
+      <c r="CF13" s="36"/>
+      <c r="CG13" s="36"/>
+      <c r="CH13" s="36"/>
+      <c r="CI13" s="36"/>
+      <c r="CJ13" s="36"/>
+      <c r="CK13" s="36"/>
+      <c r="CL13" s="36"/>
+      <c r="CM13" s="36"/>
+      <c r="CN13" s="36"/>
+      <c r="CO13" s="36"/>
+      <c r="CP13" s="36"/>
+      <c r="CQ13" s="36"/>
+      <c r="CR13" s="36"/>
+      <c r="CS13" s="36"/>
+      <c r="CT13" s="36"/>
+      <c r="CU13" s="36"/>
+      <c r="CV13" s="36"/>
+      <c r="CW13" s="36"/>
+      <c r="CX13" s="36"/>
+      <c r="CY13" s="36"/>
+      <c r="CZ13" s="36"/>
+      <c r="DA13" s="36"/>
+      <c r="DB13" s="36"/>
+      <c r="DC13" s="36"/>
+      <c r="DD13" s="36"/>
+      <c r="DE13" s="36"/>
+      <c r="DF13" s="36"/>
+      <c r="DG13" s="36"/>
+      <c r="DH13" s="36"/>
+      <c r="DI13" s="36"/>
+      <c r="DJ13" s="36"/>
+      <c r="DK13" s="36"/>
+      <c r="DL13" s="36"/>
+      <c r="DM13" s="36"/>
+      <c r="DN13" s="36"/>
+      <c r="DO13" s="29"/>
+      <c r="DP13" s="29"/>
+      <c r="DQ13" s="29"/>
+      <c r="DR13" s="29"/>
+      <c r="DS13" s="29"/>
+      <c r="DT13" s="29"/>
+      <c r="DU13" s="29"/>
+      <c r="DV13" s="29"/>
+      <c r="DW13" s="29"/>
+      <c r="DX13" s="29"/>
+      <c r="DY13" s="29"/>
+      <c r="DZ13" s="29"/>
+      <c r="EA13" s="29"/>
+      <c r="EB13" s="29"/>
+      <c r="EC13" s="29"/>
+      <c r="ED13" s="29"/>
+      <c r="EE13" s="29"/>
+      <c r="EF13" s="29"/>
+      <c r="EG13" s="29"/>
+      <c r="EH13" s="29"/>
+      <c r="EI13" s="29"/>
+      <c r="EJ13" s="29"/>
+      <c r="EK13" s="29"/>
+      <c r="EL13" s="29"/>
+      <c r="EM13" s="29"/>
+      <c r="EN13" s="29"/>
+      <c r="EO13" s="29"/>
+      <c r="EP13" s="29"/>
+      <c r="EQ13" s="29"/>
+      <c r="ER13" s="29"/>
+      <c r="ES13" s="29"/>
+      <c r="ET13" s="29"/>
+      <c r="EU13" s="29"/>
+      <c r="EV13" s="29"/>
+      <c r="EW13" s="29"/>
+      <c r="EX13" s="29"/>
+      <c r="EY13" s="29"/>
+      <c r="EZ13" s="29"/>
+      <c r="FA13" s="29"/>
+      <c r="FB13" s="29"/>
+      <c r="FC13" s="29"/>
+      <c r="FD13" s="29"/>
+      <c r="FE13" s="29"/>
+      <c r="FF13" s="29"/>
+      <c r="FG13" s="29"/>
+      <c r="FH13" s="29"/>
+      <c r="FI13" s="29"/>
+      <c r="FJ13" s="29"/>
+      <c r="FK13" s="29"/>
+      <c r="FL13" s="29"/>
+      <c r="FM13" s="29"/>
+      <c r="FN13" s="29"/>
+      <c r="FO13" s="29"/>
+      <c r="FP13" s="29"/>
+      <c r="FQ13" s="29"/>
+      <c r="FR13" s="29"/>
+      <c r="FS13" s="29"/>
+      <c r="FT13" s="29"/>
+      <c r="FU13" s="29"/>
+      <c r="FV13" s="29"/>
+      <c r="FW13" s="29"/>
+      <c r="FX13" s="29"/>
+      <c r="FY13" s="29"/>
+      <c r="FZ13" s="29"/>
+      <c r="GA13" s="29"/>
+      <c r="GB13" s="29"/>
+      <c r="GC13" s="29"/>
+      <c r="GD13" s="29"/>
+      <c r="GE13" s="29"/>
+      <c r="GF13" s="29"/>
+      <c r="GG13" s="29"/>
+      <c r="GH13" s="29"/>
+      <c r="GI13" s="29"/>
+      <c r="GJ13" s="29"/>
+      <c r="GK13" s="29"/>
+      <c r="GL13" s="29"/>
+      <c r="GM13" s="29"/>
+      <c r="GN13" s="29"/>
+      <c r="GO13" s="29"/>
+      <c r="GP13" s="29"/>
+      <c r="GQ13" s="30"/>
+    </row>
+    <row r="14" spans="1:199" ht="23" customHeight="1">
+      <c r="A14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="AX14" s="29"/>
+      <c r="AY14" s="29"/>
+      <c r="AZ14" s="29"/>
+      <c r="BA14" s="37"/>
+      <c r="BB14" s="37"/>
+      <c r="BC14" s="37"/>
+      <c r="BD14" s="37"/>
+      <c r="BE14" s="37"/>
+      <c r="BF14" s="37"/>
+      <c r="BG14" s="37"/>
+      <c r="BH14" s="37"/>
+      <c r="BI14" s="37"/>
+      <c r="BJ14" s="37"/>
+      <c r="BK14" s="37"/>
+      <c r="BL14" s="37"/>
+      <c r="BM14" s="37"/>
+      <c r="BN14" s="37"/>
+      <c r="BO14" s="37"/>
+      <c r="BP14" s="37"/>
+      <c r="BQ14" s="37"/>
+      <c r="BR14" s="37"/>
+      <c r="BS14" s="37"/>
+      <c r="BT14" s="37"/>
+      <c r="BU14" s="37"/>
+      <c r="BV14" s="29"/>
+      <c r="BW14" s="29"/>
+      <c r="BX14" s="29"/>
+      <c r="BY14" s="29"/>
+      <c r="BZ14" s="29"/>
+      <c r="CA14" s="29"/>
+      <c r="CB14" s="29"/>
+      <c r="CC14" s="29"/>
+      <c r="CD14" s="29"/>
+      <c r="CE14" s="29"/>
+      <c r="CF14" s="29"/>
+      <c r="CG14" s="29"/>
+      <c r="CH14" s="29"/>
+      <c r="CI14" s="29"/>
+      <c r="CJ14" s="29"/>
+      <c r="CK14" s="29"/>
+      <c r="CL14" s="29"/>
+      <c r="CM14" s="29"/>
+      <c r="CN14" s="29"/>
+      <c r="CO14" s="29"/>
+      <c r="CP14" s="29"/>
+      <c r="CQ14" s="29"/>
+      <c r="CR14" s="29"/>
+      <c r="CS14" s="29"/>
+      <c r="CT14" s="29"/>
+      <c r="CU14" s="29"/>
+      <c r="CV14" s="29"/>
+      <c r="CW14" s="29"/>
+      <c r="CX14" s="29"/>
+      <c r="CY14" s="29"/>
+      <c r="CZ14" s="29"/>
+      <c r="DA14" s="29"/>
+      <c r="DB14" s="29"/>
+      <c r="DC14" s="29"/>
+      <c r="DD14" s="29"/>
+      <c r="DE14" s="29"/>
+      <c r="DF14" s="29"/>
+      <c r="DG14" s="29"/>
+      <c r="DH14" s="29"/>
+      <c r="DI14" s="29"/>
+      <c r="DJ14" s="29"/>
+      <c r="DK14" s="29"/>
+      <c r="DL14" s="29"/>
+      <c r="DM14" s="29"/>
+      <c r="DN14" s="29"/>
+      <c r="DO14" s="29"/>
+      <c r="DP14" s="29"/>
+      <c r="DQ14" s="29"/>
+      <c r="DR14" s="29"/>
+      <c r="DS14" s="29"/>
+      <c r="DT14" s="29"/>
+      <c r="DU14" s="29"/>
+      <c r="DV14" s="29"/>
+      <c r="DW14" s="29"/>
+      <c r="DX14" s="29"/>
+      <c r="DY14" s="29"/>
+      <c r="DZ14" s="29"/>
+      <c r="EA14" s="29"/>
+      <c r="EB14" s="29"/>
+      <c r="EC14" s="29"/>
+      <c r="ED14" s="29"/>
+      <c r="EE14" s="29"/>
+      <c r="EF14" s="29"/>
+      <c r="EG14" s="29"/>
+      <c r="EH14" s="29"/>
+      <c r="EI14" s="29"/>
+      <c r="EJ14" s="29"/>
+      <c r="EK14" s="29"/>
+      <c r="EL14" s="29"/>
+      <c r="EM14" s="29"/>
+      <c r="EN14" s="29"/>
+      <c r="EO14" s="29"/>
+      <c r="EP14" s="29"/>
+      <c r="EQ14" s="29"/>
+      <c r="ER14" s="29"/>
+      <c r="ES14" s="29"/>
+      <c r="ET14" s="29"/>
+      <c r="EU14" s="29"/>
+      <c r="EV14" s="29"/>
+      <c r="EW14" s="29"/>
+      <c r="EX14" s="29"/>
+      <c r="EY14" s="29"/>
+      <c r="EZ14" s="29"/>
+      <c r="FA14" s="29"/>
+      <c r="FB14" s="29"/>
+      <c r="FC14" s="29"/>
+      <c r="FD14" s="29"/>
+      <c r="FE14" s="29"/>
+      <c r="FF14" s="29"/>
+      <c r="FG14" s="29"/>
+      <c r="FH14" s="29"/>
+      <c r="FI14" s="29"/>
+      <c r="FJ14" s="29"/>
+      <c r="FK14" s="29"/>
+      <c r="FL14" s="29"/>
+      <c r="FM14" s="29"/>
+      <c r="FN14" s="29"/>
+      <c r="FO14" s="29"/>
+      <c r="FP14" s="29"/>
+      <c r="FQ14" s="29"/>
+      <c r="FR14" s="29"/>
+      <c r="FS14" s="29"/>
+      <c r="FT14" s="29"/>
+      <c r="FU14" s="29"/>
+      <c r="FV14" s="29"/>
+      <c r="FW14" s="29"/>
+      <c r="FX14" s="29"/>
+      <c r="FY14" s="29"/>
+      <c r="FZ14" s="29"/>
+      <c r="GA14" s="29"/>
+      <c r="GB14" s="29"/>
+      <c r="GC14" s="29"/>
+      <c r="GD14" s="29"/>
+      <c r="GE14" s="29"/>
+      <c r="GF14" s="29"/>
+      <c r="GG14" s="29"/>
+      <c r="GH14" s="29"/>
+      <c r="GI14" s="29"/>
+      <c r="GJ14" s="29"/>
+      <c r="GK14" s="29"/>
+      <c r="GL14" s="29"/>
+      <c r="GM14" s="29"/>
+      <c r="GN14" s="29"/>
+      <c r="GO14" s="29"/>
+      <c r="GP14" s="29"/>
+      <c r="GQ14" s="30"/>
+    </row>
+    <row r="15" spans="1:199" ht="23" customHeight="1">
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="AX15" s="29"/>
+      <c r="AY15" s="29"/>
+      <c r="AZ15" s="29"/>
+      <c r="BA15" s="29"/>
+      <c r="BB15" s="29"/>
+      <c r="BC15" s="29"/>
+      <c r="BD15" s="29"/>
+      <c r="BE15" s="29"/>
+      <c r="BF15" s="29"/>
+      <c r="BG15" s="29"/>
+      <c r="BH15" s="29"/>
+      <c r="BI15" s="29"/>
+      <c r="BJ15" s="29"/>
+      <c r="BK15" s="29"/>
+      <c r="BL15" s="29"/>
+      <c r="BM15" s="29"/>
+      <c r="BN15" s="29"/>
+      <c r="BO15" s="29"/>
+      <c r="BP15" s="29"/>
+      <c r="BQ15" s="29"/>
+      <c r="BR15" s="29"/>
+      <c r="BS15" s="29"/>
+      <c r="BT15" s="29"/>
+      <c r="BU15" s="29"/>
+      <c r="BV15" s="29"/>
+      <c r="BW15" s="29"/>
+      <c r="BX15" s="29"/>
+      <c r="BY15" s="29"/>
+      <c r="BZ15" s="29"/>
+      <c r="CA15" s="29"/>
+      <c r="CB15" s="29"/>
+      <c r="CC15" s="29"/>
+      <c r="CD15" s="29"/>
+      <c r="CE15" s="29"/>
+      <c r="CF15" s="29"/>
+      <c r="CG15" s="29"/>
+      <c r="CH15" s="29"/>
+      <c r="CI15" s="29"/>
+      <c r="CJ15" s="29"/>
+      <c r="CK15" s="29"/>
+      <c r="CL15" s="29"/>
+      <c r="CM15" s="29"/>
+      <c r="CN15" s="29"/>
+      <c r="CO15" s="29"/>
+      <c r="CP15" s="29"/>
+      <c r="CQ15" s="29"/>
+      <c r="CR15" s="29"/>
+      <c r="CS15" s="29"/>
+      <c r="CT15" s="29"/>
+      <c r="CU15" s="29"/>
+      <c r="CV15" s="29"/>
+      <c r="CW15" s="29"/>
+      <c r="CX15" s="29"/>
+      <c r="CY15" s="29"/>
+      <c r="CZ15" s="29"/>
+      <c r="DA15" s="29"/>
+      <c r="DB15" s="29"/>
+      <c r="DC15" s="29"/>
+      <c r="DD15" s="29"/>
+      <c r="DE15" s="29"/>
+      <c r="DF15" s="29"/>
+      <c r="DG15" s="29"/>
+      <c r="DH15" s="29"/>
+      <c r="DI15" s="29"/>
+      <c r="DJ15" s="29"/>
+      <c r="DK15" s="29"/>
+      <c r="DL15" s="29"/>
+      <c r="DM15" s="29"/>
+      <c r="DN15" s="29"/>
+      <c r="DO15" s="38"/>
+      <c r="DP15" s="38"/>
+      <c r="DQ15" s="38"/>
+      <c r="DR15" s="38"/>
+      <c r="DS15" s="38"/>
+      <c r="DT15" s="38"/>
+      <c r="DU15" s="38"/>
+      <c r="DV15" s="38"/>
+      <c r="DW15" s="38"/>
+      <c r="DX15" s="38"/>
+      <c r="DY15" s="38"/>
+      <c r="DZ15" s="38"/>
+      <c r="EA15" s="38"/>
+      <c r="EB15" s="38"/>
+      <c r="EC15" s="38"/>
+      <c r="ED15" s="38"/>
+      <c r="EE15" s="38"/>
+      <c r="EF15" s="38"/>
+      <c r="EG15" s="38"/>
+      <c r="EH15" s="38"/>
+      <c r="EI15" s="38"/>
+      <c r="EJ15" s="38"/>
+      <c r="EK15" s="38"/>
+      <c r="EL15" s="38"/>
+      <c r="EM15" s="38"/>
+      <c r="EN15" s="38"/>
+      <c r="EO15" s="38"/>
+      <c r="EP15" s="38"/>
+      <c r="EQ15" s="38"/>
+      <c r="ER15" s="38"/>
+      <c r="ES15" s="38"/>
+      <c r="ET15" s="38"/>
+      <c r="EU15" s="29"/>
+      <c r="EV15" s="29"/>
+      <c r="EW15" s="29"/>
+      <c r="EX15" s="29"/>
+      <c r="EY15" s="29"/>
+      <c r="EZ15" s="29"/>
+      <c r="FA15" s="29"/>
+      <c r="FB15" s="29"/>
+      <c r="FC15" s="29"/>
+      <c r="FD15" s="29"/>
+      <c r="FE15" s="29"/>
+      <c r="FF15" s="29"/>
+      <c r="FG15" s="29"/>
+      <c r="FH15" s="29"/>
+      <c r="FI15" s="29"/>
+      <c r="FJ15" s="29"/>
+      <c r="FK15" s="29"/>
+      <c r="FL15" s="29"/>
+      <c r="FM15" s="29"/>
+      <c r="FN15" s="29"/>
+      <c r="FO15" s="29"/>
+      <c r="FP15" s="29"/>
+      <c r="FQ15" s="29"/>
+      <c r="FR15" s="29"/>
+      <c r="FS15" s="29"/>
+      <c r="FT15" s="29"/>
+      <c r="FU15" s="29"/>
+      <c r="FV15" s="29"/>
+      <c r="FW15" s="29"/>
+      <c r="FX15" s="29"/>
+      <c r="FY15" s="29"/>
+      <c r="FZ15" s="29"/>
+      <c r="GA15" s="29"/>
+      <c r="GB15" s="29"/>
+      <c r="GC15" s="29"/>
+      <c r="GD15" s="29"/>
+      <c r="GE15" s="29"/>
+      <c r="GF15" s="29"/>
+      <c r="GG15" s="29"/>
+      <c r="GH15" s="29"/>
+      <c r="GI15" s="29"/>
+      <c r="GJ15" s="29"/>
+      <c r="GK15" s="29"/>
+      <c r="GL15" s="29"/>
+      <c r="GM15" s="29"/>
+      <c r="GN15" s="29"/>
+      <c r="GO15" s="29"/>
+      <c r="GP15" s="29"/>
+      <c r="GQ15" s="30"/>
+    </row>
+    <row r="16" spans="1:199" ht="23" customHeight="1">
+      <c r="AX16" s="29"/>
+      <c r="AY16" s="29"/>
+      <c r="AZ16" s="29"/>
+      <c r="BA16" s="39"/>
+      <c r="BB16" s="39"/>
+      <c r="BC16" s="39"/>
+      <c r="BD16" s="39"/>
+      <c r="BE16" s="39"/>
+      <c r="BF16" s="39"/>
+      <c r="BG16" s="39"/>
+      <c r="BH16" s="39"/>
+      <c r="BI16" s="39"/>
+      <c r="BJ16" s="39"/>
+      <c r="BK16" s="39"/>
+      <c r="BL16" s="39"/>
+      <c r="BM16" s="39"/>
+      <c r="BN16" s="39"/>
+      <c r="BO16" s="39"/>
+      <c r="BP16" s="39"/>
+      <c r="BQ16" s="39"/>
+      <c r="BR16" s="39"/>
+      <c r="BS16" s="39"/>
+      <c r="BT16" s="39"/>
+      <c r="BU16" s="39"/>
+      <c r="BV16" s="39"/>
+      <c r="BW16" s="39"/>
+      <c r="BX16" s="39"/>
+      <c r="BY16" s="39"/>
+      <c r="BZ16" s="39"/>
+      <c r="CA16" s="39"/>
+      <c r="CB16" s="39"/>
+      <c r="CC16" s="39"/>
+      <c r="CD16" s="39"/>
+      <c r="CE16" s="39"/>
+      <c r="CF16" s="39"/>
+      <c r="CG16" s="29"/>
+      <c r="CH16" s="29"/>
+      <c r="CI16" s="29"/>
+      <c r="CJ16" s="29"/>
+      <c r="CK16" s="29"/>
+      <c r="CL16" s="29"/>
+      <c r="CM16" s="29"/>
+      <c r="CN16" s="29"/>
+      <c r="CO16" s="29"/>
+      <c r="CP16" s="29"/>
+      <c r="CQ16" s="29"/>
+      <c r="CR16" s="29"/>
+      <c r="CS16" s="29"/>
+      <c r="CT16" s="29"/>
+      <c r="CU16" s="29"/>
+      <c r="CV16" s="29"/>
+      <c r="CW16" s="29"/>
+      <c r="CX16" s="29"/>
+      <c r="CY16" s="29"/>
+      <c r="CZ16" s="29"/>
+      <c r="DA16" s="29"/>
+      <c r="DB16" s="29"/>
+      <c r="DC16" s="29"/>
+      <c r="DD16" s="29"/>
+      <c r="DE16" s="29"/>
+      <c r="DF16" s="29"/>
+      <c r="DG16" s="29"/>
+      <c r="DH16" s="29"/>
+      <c r="DI16" s="29"/>
+      <c r="DJ16" s="29"/>
+      <c r="DK16" s="29"/>
+      <c r="DL16" s="29"/>
+      <c r="DM16" s="29"/>
+      <c r="DN16" s="29"/>
+      <c r="DO16" s="29"/>
+      <c r="DP16" s="29"/>
+      <c r="DQ16" s="29"/>
+      <c r="DR16" s="29"/>
+      <c r="DS16" s="29"/>
+      <c r="DT16" s="29"/>
+      <c r="DU16" s="29"/>
+      <c r="DV16" s="29"/>
+      <c r="DW16" s="29"/>
+      <c r="DX16" s="29"/>
+      <c r="DY16" s="29"/>
+      <c r="DZ16" s="29"/>
+      <c r="EA16" s="29"/>
+      <c r="EB16" s="29"/>
+      <c r="EC16" s="29"/>
+      <c r="ED16" s="29"/>
+      <c r="EE16" s="29"/>
+      <c r="EF16" s="29"/>
+      <c r="EG16" s="29"/>
+      <c r="EH16" s="29"/>
+      <c r="EI16" s="29"/>
+      <c r="EJ16" s="29"/>
+      <c r="EK16" s="29"/>
+      <c r="EL16" s="29"/>
+      <c r="EM16" s="29"/>
+      <c r="EN16" s="29"/>
+      <c r="EO16" s="29"/>
+      <c r="EP16" s="29"/>
+      <c r="EQ16" s="29"/>
+      <c r="ER16" s="29"/>
+      <c r="ES16" s="29"/>
+      <c r="ET16" s="29"/>
+      <c r="EU16" s="29"/>
+      <c r="EV16" s="29"/>
+      <c r="EW16" s="29"/>
+      <c r="EX16" s="29"/>
+      <c r="EY16" s="29"/>
+      <c r="EZ16" s="29"/>
+      <c r="FA16" s="29"/>
+      <c r="FB16" s="29"/>
+      <c r="FC16" s="29"/>
+      <c r="FD16" s="29"/>
+      <c r="FE16" s="29"/>
+      <c r="FF16" s="29"/>
+      <c r="FG16" s="29"/>
+      <c r="FH16" s="29"/>
+      <c r="FI16" s="29"/>
+      <c r="FJ16" s="29"/>
+      <c r="FK16" s="29"/>
+      <c r="FL16" s="29"/>
+      <c r="FM16" s="29"/>
+      <c r="FN16" s="29"/>
+      <c r="FO16" s="29"/>
+      <c r="FP16" s="29"/>
+      <c r="FQ16" s="29"/>
+      <c r="FR16" s="29"/>
+      <c r="FS16" s="29"/>
+      <c r="FT16" s="29"/>
+      <c r="FU16" s="29"/>
+      <c r="FV16" s="29"/>
+      <c r="FW16" s="29"/>
+      <c r="FX16" s="29"/>
+      <c r="FY16" s="29"/>
+      <c r="FZ16" s="29"/>
+      <c r="GA16" s="29"/>
+      <c r="GB16" s="29"/>
+      <c r="GC16" s="29"/>
+      <c r="GD16" s="29"/>
+      <c r="GE16" s="29"/>
+      <c r="GF16" s="29"/>
+      <c r="GG16" s="29"/>
+      <c r="GH16" s="29"/>
+      <c r="GI16" s="29"/>
+      <c r="GJ16" s="29"/>
+      <c r="GK16" s="29"/>
+      <c r="GL16" s="29"/>
+      <c r="GM16" s="29"/>
+      <c r="GN16" s="29"/>
+      <c r="GO16" s="29"/>
+      <c r="GP16" s="29"/>
+      <c r="GQ16" s="30"/>
+    </row>
+    <row r="17" spans="50:199" ht="23" customHeight="1">
+      <c r="AX17" s="29"/>
+      <c r="AY17" s="29"/>
+      <c r="AZ17" s="29"/>
+      <c r="BA17" s="29"/>
+      <c r="BB17" s="29"/>
+      <c r="BC17" s="29"/>
+      <c r="BD17" s="29"/>
+      <c r="BE17" s="29"/>
+      <c r="BF17" s="29"/>
+      <c r="BG17" s="29"/>
+      <c r="BH17" s="29"/>
+      <c r="BI17" s="29"/>
+      <c r="BJ17" s="29"/>
+      <c r="BK17" s="29"/>
+      <c r="BL17" s="29"/>
+      <c r="BM17" s="29"/>
+      <c r="BN17" s="29"/>
+      <c r="BO17" s="29"/>
+      <c r="BP17" s="29"/>
+      <c r="BQ17" s="29"/>
+      <c r="BR17" s="29"/>
+      <c r="BS17" s="29"/>
+      <c r="BT17" s="29"/>
+      <c r="BU17" s="29"/>
+      <c r="BV17" s="43"/>
+      <c r="BW17" s="43"/>
+      <c r="BX17" s="43"/>
+      <c r="BY17" s="43"/>
+      <c r="BZ17" s="43"/>
+      <c r="CA17" s="43"/>
+      <c r="CB17" s="43"/>
+      <c r="CC17" s="43"/>
+      <c r="CD17" s="43"/>
+      <c r="CE17" s="43"/>
+      <c r="CF17" s="43"/>
+      <c r="CG17" s="43"/>
+      <c r="CH17" s="43"/>
+      <c r="CI17" s="43"/>
+      <c r="CJ17" s="43"/>
+      <c r="CK17" s="43"/>
+      <c r="CL17" s="43"/>
+      <c r="CM17" s="43"/>
+      <c r="CN17" s="43"/>
+      <c r="CO17" s="43"/>
+      <c r="CP17" s="43"/>
+      <c r="CQ17" s="43"/>
+      <c r="CR17" s="43"/>
+      <c r="CS17" s="43"/>
+      <c r="CT17" s="43"/>
+      <c r="CU17" s="43"/>
+      <c r="CV17" s="43"/>
+      <c r="CW17" s="43"/>
+      <c r="CX17" s="43"/>
+      <c r="CY17" s="43"/>
+      <c r="CZ17" s="43"/>
+      <c r="DA17" s="43"/>
+      <c r="DB17" s="43"/>
+      <c r="DC17" s="43"/>
+      <c r="DD17" s="43"/>
+      <c r="DE17" s="43"/>
+      <c r="DF17" s="43"/>
+      <c r="DG17" s="43"/>
+      <c r="DH17" s="43"/>
+      <c r="DI17" s="43"/>
+      <c r="DJ17" s="43"/>
+      <c r="DK17" s="43"/>
+      <c r="DL17" s="43"/>
+      <c r="DM17" s="43"/>
+      <c r="DN17" s="43"/>
+      <c r="DO17" s="43"/>
+      <c r="DP17" s="43"/>
+      <c r="DQ17" s="43"/>
+      <c r="DR17" s="43"/>
+      <c r="DS17" s="29"/>
+      <c r="DT17" s="29"/>
+      <c r="DU17" s="29"/>
+      <c r="DV17" s="29"/>
+      <c r="DW17" s="29"/>
+      <c r="DX17" s="29"/>
+      <c r="DY17" s="29"/>
+      <c r="DZ17" s="29"/>
+      <c r="EA17" s="29"/>
+      <c r="EB17" s="29"/>
+      <c r="EC17" s="29"/>
+      <c r="ED17" s="29"/>
+      <c r="EE17" s="29"/>
+      <c r="EF17" s="29"/>
+      <c r="EG17" s="29"/>
+      <c r="EH17" s="29"/>
+      <c r="EI17" s="29"/>
+      <c r="EJ17" s="29"/>
+      <c r="EK17" s="29"/>
+      <c r="EL17" s="29"/>
+      <c r="EM17" s="29"/>
+      <c r="EN17" s="29"/>
+      <c r="EO17" s="29"/>
+      <c r="EP17" s="29"/>
+      <c r="EQ17" s="29"/>
+      <c r="ER17" s="29"/>
+      <c r="ES17" s="29"/>
+      <c r="ET17" s="29"/>
+      <c r="EU17" s="29"/>
+      <c r="EV17" s="29"/>
+      <c r="EW17" s="29"/>
+      <c r="EX17" s="29"/>
+      <c r="EY17" s="29"/>
+      <c r="EZ17" s="29"/>
+      <c r="FA17" s="29"/>
+      <c r="FB17" s="29"/>
+      <c r="FC17" s="29"/>
+      <c r="FD17" s="29"/>
+      <c r="FE17" s="29"/>
+      <c r="FF17" s="29"/>
+      <c r="FG17" s="29"/>
+      <c r="FH17" s="29"/>
+      <c r="FI17" s="29"/>
+      <c r="FJ17" s="29"/>
+      <c r="FK17" s="29"/>
+      <c r="FL17" s="29"/>
+      <c r="FM17" s="29"/>
+      <c r="FN17" s="29"/>
+      <c r="FO17" s="29"/>
+      <c r="FP17" s="29"/>
+      <c r="FQ17" s="29"/>
+      <c r="FR17" s="29"/>
+      <c r="FS17" s="29"/>
+      <c r="FT17" s="29"/>
+      <c r="FU17" s="29"/>
+      <c r="FV17" s="29"/>
+      <c r="FW17" s="29"/>
+      <c r="FX17" s="29"/>
+      <c r="FY17" s="29"/>
+      <c r="FZ17" s="29"/>
+      <c r="GA17" s="29"/>
+      <c r="GB17" s="29"/>
+      <c r="GC17" s="29"/>
+      <c r="GD17" s="29"/>
+      <c r="GE17" s="29"/>
+      <c r="GF17" s="29"/>
+      <c r="GG17" s="29"/>
+      <c r="GH17" s="29"/>
+      <c r="GI17" s="29"/>
+      <c r="GJ17" s="29"/>
+      <c r="GK17" s="29"/>
+      <c r="GL17" s="29"/>
+      <c r="GM17" s="29"/>
+      <c r="GN17" s="29"/>
+      <c r="GO17" s="29"/>
+      <c r="GP17" s="29"/>
+      <c r="GQ17" s="30"/>
+    </row>
+    <row r="18" spans="50:199" ht="23" customHeight="1">
+      <c r="AX18" s="29"/>
+      <c r="AY18" s="29"/>
+      <c r="AZ18" s="29"/>
+      <c r="BA18" s="29"/>
+      <c r="BB18" s="29"/>
+      <c r="BC18" s="29"/>
+      <c r="BD18" s="29"/>
+      <c r="BE18" s="29"/>
+      <c r="BF18" s="29"/>
+      <c r="BG18" s="29"/>
+      <c r="BH18" s="29"/>
+      <c r="BI18" s="29"/>
+      <c r="BJ18" s="29"/>
+      <c r="BK18" s="29"/>
+      <c r="BL18" s="29"/>
+      <c r="BM18" s="29"/>
+      <c r="BN18" s="29"/>
+      <c r="BO18" s="29"/>
+      <c r="BP18" s="29"/>
+      <c r="BQ18" s="29"/>
+      <c r="BR18" s="29"/>
+      <c r="BS18" s="29"/>
+      <c r="BT18" s="29"/>
+      <c r="BU18" s="29"/>
+      <c r="BV18" s="29"/>
+      <c r="BW18" s="29"/>
+      <c r="BX18" s="29"/>
+      <c r="BY18" s="29"/>
+      <c r="BZ18" s="29"/>
+      <c r="CA18" s="29"/>
+      <c r="CB18" s="29"/>
+      <c r="CC18" s="29"/>
+      <c r="CD18" s="29"/>
+      <c r="CE18" s="29"/>
+      <c r="CF18" s="29"/>
+      <c r="CG18" s="29"/>
+      <c r="CH18" s="29"/>
+      <c r="CI18" s="29"/>
+      <c r="CJ18" s="29"/>
+      <c r="CK18" s="29"/>
+      <c r="CL18" s="29"/>
+      <c r="CM18" s="29"/>
+      <c r="CN18" s="29"/>
+      <c r="CO18" s="29"/>
+      <c r="CP18" s="40"/>
+      <c r="CQ18" s="40"/>
+      <c r="CR18" s="40"/>
+      <c r="CS18" s="40"/>
+      <c r="CT18" s="40"/>
+      <c r="CU18" s="40"/>
+      <c r="CV18" s="40"/>
+      <c r="CW18" s="40"/>
+      <c r="CX18" s="40"/>
+      <c r="CY18" s="40"/>
+      <c r="CZ18" s="40"/>
+      <c r="DA18" s="40"/>
+      <c r="DB18" s="40"/>
+      <c r="DC18" s="40"/>
+      <c r="DD18" s="40"/>
+      <c r="DE18" s="40"/>
+      <c r="DF18" s="40"/>
+      <c r="DG18" s="40"/>
+      <c r="DH18" s="40"/>
+      <c r="DI18" s="40"/>
+      <c r="DJ18" s="40"/>
+      <c r="DK18" s="40"/>
+      <c r="DL18" s="40"/>
+      <c r="DM18" s="40"/>
+      <c r="DN18" s="40"/>
+      <c r="DO18" s="40"/>
+      <c r="DP18" s="40"/>
+      <c r="DQ18" s="40"/>
+      <c r="DR18" s="40"/>
+      <c r="DS18" s="40"/>
+      <c r="DT18" s="29"/>
+      <c r="DU18" s="29"/>
+      <c r="DV18" s="29"/>
+      <c r="DW18" s="29"/>
+      <c r="DX18" s="29"/>
+      <c r="DY18" s="29"/>
+      <c r="DZ18" s="29"/>
+      <c r="EA18" s="29"/>
+      <c r="EB18" s="29"/>
+      <c r="EC18" s="29"/>
+      <c r="ED18" s="29"/>
+      <c r="EE18" s="29"/>
+      <c r="EF18" s="29"/>
+      <c r="EG18" s="29"/>
+      <c r="EH18" s="29"/>
+      <c r="EI18" s="29"/>
+      <c r="EJ18" s="29"/>
+      <c r="EK18" s="29"/>
+      <c r="EL18" s="29"/>
+      <c r="EM18" s="29"/>
+      <c r="EN18" s="29"/>
+      <c r="EO18" s="29"/>
+      <c r="EP18" s="29"/>
+      <c r="EQ18" s="29"/>
+      <c r="ER18" s="29"/>
+      <c r="ES18" s="29"/>
+      <c r="ET18" s="29"/>
+      <c r="EU18" s="29"/>
+      <c r="EV18" s="29"/>
+      <c r="EW18" s="29"/>
+      <c r="EX18" s="29"/>
+      <c r="EY18" s="29"/>
+      <c r="EZ18" s="29"/>
+      <c r="FA18" s="29"/>
+      <c r="FB18" s="29"/>
+      <c r="FC18" s="29"/>
+      <c r="FD18" s="29"/>
+      <c r="FE18" s="29"/>
+      <c r="FF18" s="29"/>
+      <c r="FG18" s="29"/>
+      <c r="FH18" s="29"/>
+      <c r="FI18" s="29"/>
+      <c r="FJ18" s="29"/>
+      <c r="FK18" s="29"/>
+      <c r="FL18" s="29"/>
+      <c r="FM18" s="29"/>
+      <c r="FN18" s="29"/>
+      <c r="FO18" s="29"/>
+      <c r="FP18" s="29"/>
+      <c r="FQ18" s="29"/>
+      <c r="FR18" s="29"/>
+      <c r="FS18" s="29"/>
+      <c r="FT18" s="29"/>
+      <c r="FU18" s="29"/>
+      <c r="FV18" s="29"/>
+      <c r="FW18" s="29"/>
+      <c r="FX18" s="29"/>
+      <c r="FY18" s="29"/>
+      <c r="FZ18" s="29"/>
+      <c r="GA18" s="29"/>
+      <c r="GB18" s="29"/>
+      <c r="GC18" s="29"/>
+      <c r="GD18" s="29"/>
+      <c r="GE18" s="29"/>
+      <c r="GF18" s="29"/>
+      <c r="GG18" s="29"/>
+      <c r="GH18" s="29"/>
+      <c r="GI18" s="29"/>
+      <c r="GJ18" s="29"/>
+      <c r="GK18" s="29"/>
+      <c r="GL18" s="29"/>
+      <c r="GM18" s="29"/>
+      <c r="GN18" s="29"/>
+      <c r="GO18" s="29"/>
+      <c r="GP18" s="29"/>
+      <c r="GQ18" s="30"/>
+    </row>
+    <row r="19" spans="50:199" ht="23" customHeight="1">
+      <c r="AX19" s="29"/>
+      <c r="AY19" s="29"/>
+      <c r="AZ19" s="29"/>
+      <c r="BA19" s="29"/>
+      <c r="BB19" s="29"/>
+      <c r="BC19" s="29"/>
+      <c r="BD19" s="29"/>
+      <c r="BE19" s="29"/>
+      <c r="BF19" s="29"/>
+      <c r="BG19" s="29"/>
+      <c r="BH19" s="29"/>
+      <c r="BI19" s="29"/>
+      <c r="BJ19" s="29"/>
+      <c r="BK19" s="29"/>
+      <c r="BL19" s="29"/>
+      <c r="BM19" s="29"/>
+      <c r="BN19" s="29"/>
+      <c r="BO19" s="29"/>
+      <c r="BP19" s="29"/>
+      <c r="BQ19" s="29"/>
+      <c r="BR19" s="29"/>
+      <c r="BS19" s="29"/>
+      <c r="BT19" s="29"/>
+      <c r="BU19" s="29"/>
+      <c r="BV19" s="29"/>
+      <c r="BW19" s="29"/>
+      <c r="BX19" s="29"/>
+      <c r="BY19" s="29"/>
+      <c r="BZ19" s="29"/>
+      <c r="CA19" s="29"/>
+      <c r="CB19" s="29"/>
+      <c r="CC19" s="29"/>
+      <c r="CD19" s="29"/>
+      <c r="CE19" s="29"/>
+      <c r="CF19" s="29"/>
+      <c r="CG19" s="29"/>
+      <c r="CH19" s="29"/>
+      <c r="CI19" s="29"/>
+      <c r="CJ19" s="29"/>
+      <c r="CK19" s="29"/>
+      <c r="CL19" s="29"/>
+      <c r="CM19" s="29"/>
+      <c r="CN19" s="29"/>
+      <c r="CO19" s="29"/>
+      <c r="CP19" s="29"/>
+      <c r="CQ19" s="29"/>
+      <c r="CR19" s="29"/>
+      <c r="CS19" s="29"/>
+      <c r="CT19" s="29"/>
+      <c r="CU19" s="29"/>
+      <c r="CV19" s="29"/>
+      <c r="CW19" s="29"/>
+      <c r="CX19" s="29"/>
+      <c r="CY19" s="29"/>
+      <c r="CZ19" s="29"/>
+      <c r="DA19" s="29"/>
+      <c r="DB19" s="29"/>
+      <c r="DC19" s="29"/>
+      <c r="DD19" s="29"/>
+      <c r="DE19" s="29"/>
+      <c r="DF19" s="29"/>
+      <c r="DG19" s="29"/>
+      <c r="DH19" s="29"/>
+      <c r="DI19" s="29"/>
+      <c r="DJ19" s="29"/>
+      <c r="DK19" s="29"/>
+      <c r="DL19" s="29"/>
+      <c r="DM19" s="29"/>
+      <c r="DN19" s="29"/>
+      <c r="DO19" s="29"/>
+      <c r="DP19" s="29"/>
+      <c r="DQ19" s="29"/>
+      <c r="DR19" s="29"/>
+      <c r="DS19" s="41"/>
+      <c r="DT19" s="41"/>
+      <c r="DU19" s="41"/>
+      <c r="DV19" s="41"/>
+      <c r="DW19" s="41"/>
+      <c r="DX19" s="41"/>
+      <c r="DY19" s="41"/>
+      <c r="DZ19" s="41"/>
+      <c r="EA19" s="41"/>
+      <c r="EB19" s="41"/>
+      <c r="EC19" s="41"/>
+      <c r="ED19" s="41"/>
+      <c r="EE19" s="41"/>
+      <c r="EF19" s="41"/>
+      <c r="EG19" s="41"/>
+      <c r="EH19" s="41"/>
+      <c r="EI19" s="41"/>
+      <c r="EJ19" s="41"/>
+      <c r="EK19" s="41"/>
+      <c r="EL19" s="29"/>
+      <c r="EM19" s="29"/>
+      <c r="EN19" s="29"/>
+      <c r="EO19" s="29"/>
+      <c r="EP19" s="29"/>
+      <c r="EQ19" s="29"/>
+      <c r="ER19" s="29"/>
+      <c r="ES19" s="29"/>
+      <c r="ET19" s="29"/>
+      <c r="EU19" s="29"/>
+      <c r="EV19" s="29"/>
+      <c r="EW19" s="29"/>
+      <c r="EX19" s="29"/>
+      <c r="EY19" s="29"/>
+      <c r="EZ19" s="29"/>
+      <c r="FA19" s="29"/>
+      <c r="FB19" s="29"/>
+      <c r="FC19" s="29"/>
+      <c r="FD19" s="29"/>
+      <c r="FE19" s="29"/>
+      <c r="FF19" s="29"/>
+      <c r="FG19" s="29"/>
+      <c r="FH19" s="29"/>
+      <c r="FI19" s="29"/>
+      <c r="FJ19" s="29"/>
+      <c r="FK19" s="29"/>
+      <c r="FL19" s="29"/>
+      <c r="FM19" s="29"/>
+      <c r="FN19" s="29"/>
+      <c r="FO19" s="29"/>
+      <c r="FP19" s="29"/>
+      <c r="FQ19" s="29"/>
+      <c r="FR19" s="29"/>
+      <c r="FS19" s="29"/>
+      <c r="FT19" s="29"/>
+      <c r="FU19" s="29"/>
+      <c r="FV19" s="29"/>
+      <c r="FW19" s="29"/>
+      <c r="FX19" s="29"/>
+      <c r="FY19" s="29"/>
+      <c r="FZ19" s="29"/>
+      <c r="GA19" s="29"/>
+      <c r="GB19" s="29"/>
+      <c r="GC19" s="29"/>
+      <c r="GD19" s="29"/>
+      <c r="GE19" s="29"/>
+      <c r="GF19" s="29"/>
+      <c r="GG19" s="29"/>
+      <c r="GH19" s="29"/>
+      <c r="GI19" s="29"/>
+      <c r="GJ19" s="29"/>
+      <c r="GK19" s="29"/>
+      <c r="GL19" s="29"/>
+      <c r="GM19" s="29"/>
+      <c r="GN19" s="29"/>
+      <c r="GO19" s="29"/>
+      <c r="GP19" s="29"/>
+      <c r="GQ19" s="30"/>
+    </row>
+    <row r="20" spans="50:199" ht="23" customHeight="1">
+      <c r="AX20" s="29"/>
+      <c r="AY20" s="29"/>
+      <c r="AZ20" s="29"/>
+      <c r="BA20" s="29"/>
+      <c r="BB20" s="29"/>
+      <c r="BC20" s="29"/>
+      <c r="BD20" s="29"/>
+      <c r="BE20" s="29"/>
+      <c r="BF20" s="29"/>
+      <c r="BG20" s="29"/>
+      <c r="BH20" s="29"/>
+      <c r="BI20" s="29"/>
+      <c r="BJ20" s="29"/>
+      <c r="BK20" s="29"/>
+      <c r="BL20" s="29"/>
+      <c r="BM20" s="29"/>
+      <c r="BN20" s="29"/>
+      <c r="BO20" s="29"/>
+      <c r="BP20" s="29"/>
+      <c r="BQ20" s="29"/>
+      <c r="BR20" s="29"/>
+      <c r="BS20" s="29"/>
+      <c r="BT20" s="29"/>
+      <c r="BU20" s="29"/>
+      <c r="BV20" s="29"/>
+      <c r="BW20" s="29"/>
+      <c r="BX20" s="29"/>
+      <c r="BY20" s="29"/>
+      <c r="BZ20" s="29"/>
+      <c r="CA20" s="29"/>
+      <c r="CB20" s="29"/>
+      <c r="CC20" s="29"/>
+      <c r="CD20" s="29"/>
+      <c r="CE20" s="29"/>
+      <c r="CF20" s="29"/>
+      <c r="CG20" s="29"/>
+      <c r="CH20" s="29"/>
+      <c r="CI20" s="29"/>
+      <c r="CJ20" s="29"/>
+      <c r="CK20" s="29"/>
+      <c r="CL20" s="29"/>
+      <c r="CM20" s="29"/>
+      <c r="CN20" s="29"/>
+      <c r="CO20" s="29"/>
+      <c r="CP20" s="29"/>
+      <c r="CQ20" s="29"/>
+      <c r="CR20" s="29"/>
+      <c r="CS20" s="29"/>
+      <c r="CT20" s="29"/>
+      <c r="CU20" s="29"/>
+      <c r="CV20" s="29"/>
+      <c r="CW20" s="29"/>
+      <c r="CX20" s="29"/>
+      <c r="CY20" s="29"/>
+      <c r="CZ20" s="29"/>
+      <c r="DA20" s="29"/>
+      <c r="DB20" s="29"/>
+      <c r="DC20" s="29"/>
+      <c r="DD20" s="29"/>
+      <c r="DE20" s="29"/>
+      <c r="DF20" s="29"/>
+      <c r="DG20" s="29"/>
+      <c r="DH20" s="29"/>
+      <c r="DI20" s="29"/>
+      <c r="DJ20" s="29"/>
+      <c r="DK20" s="29"/>
+      <c r="DL20" s="29"/>
+      <c r="DM20" s="29"/>
+      <c r="DN20" s="29"/>
+      <c r="DO20" s="29"/>
+      <c r="DP20" s="29"/>
+      <c r="DQ20" s="29"/>
+      <c r="DR20" s="29"/>
+      <c r="DS20" s="29"/>
+      <c r="DT20" s="29"/>
+      <c r="DU20" s="29"/>
+      <c r="DV20" s="29"/>
+      <c r="DW20" s="29"/>
+      <c r="DX20" s="29"/>
+      <c r="DY20" s="29"/>
+      <c r="DZ20" s="29"/>
+      <c r="EA20" s="29"/>
+      <c r="EB20" s="29"/>
+      <c r="EC20" s="29"/>
+      <c r="ED20" s="29"/>
+      <c r="EE20" s="29"/>
+      <c r="EF20" s="29"/>
+      <c r="EG20" s="29"/>
+      <c r="EH20" s="29"/>
+      <c r="EI20" s="29"/>
+      <c r="EJ20" s="29"/>
+      <c r="EK20" s="29"/>
+      <c r="EL20" s="29"/>
+      <c r="EM20" s="29"/>
+      <c r="EN20" s="29"/>
+      <c r="EO20" s="42"/>
+      <c r="EP20" s="42"/>
+      <c r="EQ20" s="42"/>
+      <c r="ER20" s="42"/>
+      <c r="ES20" s="42"/>
+      <c r="ET20" s="42"/>
+      <c r="EU20" s="42"/>
+      <c r="EV20" s="42"/>
+      <c r="EW20" s="42"/>
+      <c r="EX20" s="42"/>
+      <c r="EY20" s="42"/>
+      <c r="EZ20" s="42"/>
+      <c r="FA20" s="42"/>
+      <c r="FB20" s="42"/>
+      <c r="FC20" s="42"/>
+      <c r="FD20" s="42"/>
+      <c r="FE20" s="42"/>
+      <c r="FF20" s="42"/>
+      <c r="FG20" s="42"/>
+      <c r="FH20" s="42"/>
+      <c r="FI20" s="42"/>
+      <c r="FJ20" s="42"/>
+      <c r="FK20" s="42"/>
+      <c r="FL20" s="42"/>
+      <c r="FM20" s="42"/>
+      <c r="FN20" s="42"/>
+      <c r="FO20" s="29"/>
+      <c r="FP20" s="29"/>
+      <c r="FQ20" s="29"/>
+      <c r="FR20" s="29"/>
+      <c r="FS20" s="29"/>
+      <c r="FT20" s="29"/>
+      <c r="FU20" s="29"/>
+      <c r="FV20" s="29"/>
+      <c r="FW20" s="29"/>
+      <c r="FX20" s="29"/>
+      <c r="FY20" s="29"/>
+      <c r="FZ20" s="29"/>
+      <c r="GA20" s="29"/>
+      <c r="GB20" s="29"/>
+      <c r="GC20" s="29"/>
+      <c r="GD20" s="29"/>
+      <c r="GE20" s="29"/>
+      <c r="GF20" s="29"/>
+      <c r="GG20" s="29"/>
+      <c r="GH20" s="29"/>
+      <c r="GI20" s="29"/>
+      <c r="GJ20" s="29"/>
+      <c r="GK20" s="29"/>
+      <c r="GL20" s="29"/>
+      <c r="GM20" s="29"/>
+      <c r="GN20" s="29"/>
+      <c r="GO20" s="29"/>
+      <c r="GP20" s="29"/>
+      <c r="GQ20" s="30"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:DZ5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="BT12" sqref="BT12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0.83203125" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="1:130" ht="23" customHeight="1">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15">
+        <v>2</v>
+      </c>
+      <c r="C2" s="15">
+        <v>3</v>
+      </c>
+      <c r="D2" s="15">
+        <v>4</v>
+      </c>
+      <c r="E2" s="15">
+        <v>5</v>
+      </c>
+      <c r="F2" s="15">
+        <v>6</v>
+      </c>
+      <c r="G2" s="15">
+        <v>7</v>
+      </c>
+      <c r="H2" s="15">
+        <v>8</v>
+      </c>
+      <c r="I2" s="15">
+        <v>9</v>
+      </c>
+      <c r="J2" s="15">
+        <v>10</v>
+      </c>
+      <c r="K2" s="15">
+        <v>11</v>
+      </c>
+      <c r="L2" s="15">
+        <v>12</v>
+      </c>
+      <c r="M2" s="15">
+        <v>13</v>
+      </c>
+      <c r="N2" s="15">
+        <v>14</v>
+      </c>
+      <c r="O2" s="15">
+        <v>15</v>
+      </c>
+      <c r="P2" s="15">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="15">
+        <v>17</v>
+      </c>
+      <c r="R2" s="15">
+        <v>18</v>
+      </c>
+      <c r="S2" s="15">
+        <v>19</v>
+      </c>
+      <c r="T2" s="15">
+        <v>20</v>
+      </c>
+      <c r="U2" s="15">
+        <v>21</v>
+      </c>
+      <c r="V2" s="15">
+        <v>22</v>
+      </c>
+      <c r="W2" s="15">
+        <v>23</v>
+      </c>
+      <c r="X2" s="15">
+        <v>24</v>
+      </c>
+      <c r="Y2" s="15">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="15">
+        <v>26</v>
+      </c>
+      <c r="AA2" s="15">
+        <v>27</v>
+      </c>
+      <c r="AB2" s="15">
+        <v>28</v>
+      </c>
+      <c r="AC2" s="15">
+        <v>29</v>
+      </c>
+      <c r="AD2" s="15">
+        <v>30</v>
+      </c>
+      <c r="AE2" s="15">
+        <v>31</v>
+      </c>
+      <c r="AF2" s="15">
+        <v>32</v>
+      </c>
+      <c r="AG2" s="15">
+        <v>33</v>
+      </c>
+      <c r="AH2" s="15">
+        <v>34</v>
+      </c>
+      <c r="AI2" s="15">
+        <v>35</v>
+      </c>
+      <c r="AJ2" s="15">
+        <v>36</v>
+      </c>
+      <c r="AK2" s="15">
+        <v>37</v>
+      </c>
+      <c r="AL2" s="15">
+        <v>38</v>
+      </c>
+      <c r="AM2" s="15">
+        <v>39</v>
+      </c>
+      <c r="AN2" s="15">
+        <v>40</v>
+      </c>
+      <c r="AO2" s="15">
+        <v>41</v>
+      </c>
+      <c r="AP2" s="16"/>
+      <c r="AQ2" s="16"/>
+      <c r="AR2" s="16"/>
+      <c r="AS2" s="16"/>
+      <c r="AT2" s="16"/>
+      <c r="AU2" s="16"/>
+      <c r="AV2" s="16"/>
+      <c r="AW2" s="16"/>
+      <c r="AX2" s="16"/>
+      <c r="AY2" s="16"/>
+      <c r="AZ2" s="16"/>
+      <c r="BA2" s="16"/>
+      <c r="BB2" s="16"/>
+      <c r="BC2" s="16"/>
+      <c r="BD2" s="16"/>
+      <c r="BE2" s="16"/>
+      <c r="BF2" s="16"/>
+      <c r="BG2" s="16"/>
+      <c r="BH2" s="16"/>
+      <c r="BI2" s="16"/>
+      <c r="BJ2" s="16"/>
+      <c r="BK2" s="16"/>
+      <c r="BL2" s="16"/>
+      <c r="BM2" s="16"/>
+      <c r="BN2" s="16"/>
+      <c r="BO2" s="16"/>
+      <c r="BP2" s="16"/>
+      <c r="BQ2" s="16"/>
+      <c r="BR2" s="16"/>
+      <c r="BS2" s="16"/>
+      <c r="BT2" s="16"/>
+      <c r="BU2" s="16"/>
+      <c r="BV2" s="16"/>
+      <c r="BW2" s="16"/>
+      <c r="BX2" s="16"/>
+      <c r="BY2" s="16"/>
+      <c r="BZ2" s="16"/>
+      <c r="CA2" s="16"/>
+      <c r="CB2" s="16"/>
+      <c r="CC2" s="16"/>
+      <c r="CD2" s="16"/>
+      <c r="CE2" s="16"/>
+      <c r="CF2" s="16"/>
+      <c r="CG2" s="16"/>
+      <c r="CH2" s="16"/>
+      <c r="CI2" s="16"/>
+      <c r="CJ2" s="16"/>
+      <c r="CK2" s="16"/>
+      <c r="CL2" s="16"/>
+      <c r="CM2" s="16"/>
+      <c r="CN2" s="16"/>
+      <c r="CO2" s="19"/>
+      <c r="CP2" s="19"/>
+      <c r="CQ2" s="19"/>
+      <c r="CR2" s="19"/>
+      <c r="CS2" s="19"/>
+      <c r="CT2" s="19"/>
+      <c r="CU2" s="19"/>
+      <c r="CV2" s="19"/>
+      <c r="CW2" s="19"/>
+      <c r="CX2" s="19"/>
+      <c r="CY2" s="19"/>
+      <c r="CZ2" s="19"/>
+      <c r="DA2" s="19"/>
+      <c r="DB2" s="19"/>
+      <c r="DC2" s="19"/>
+      <c r="DD2" s="19"/>
+      <c r="DE2" s="19"/>
+      <c r="DF2" s="19"/>
+      <c r="DG2" s="19"/>
+      <c r="DH2" s="19"/>
+      <c r="DI2" s="19"/>
+      <c r="DJ2" s="19"/>
+      <c r="DK2" s="19"/>
+      <c r="DL2" s="19"/>
+      <c r="DM2" s="19"/>
+      <c r="DN2" s="19"/>
+      <c r="DO2" s="19"/>
+      <c r="DP2" s="19"/>
+      <c r="DQ2" s="19"/>
+      <c r="DR2" s="19"/>
+      <c r="DS2" s="19"/>
+      <c r="DT2" s="19"/>
+      <c r="DU2" s="19"/>
+      <c r="DV2" s="19"/>
+      <c r="DW2" s="19"/>
+      <c r="DX2" s="19"/>
+      <c r="DY2" s="19"/>
+      <c r="DZ2" s="19"/>
+    </row>
+    <row r="3" spans="1:130" ht="23" customHeight="1">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="17"/>
+      <c r="AG3" s="17"/>
+      <c r="AH3" s="17"/>
+      <c r="AI3" s="17"/>
+      <c r="AJ3" s="17"/>
+      <c r="AK3" s="17"/>
+      <c r="AL3" s="17"/>
+      <c r="AM3" s="17"/>
+      <c r="AN3" s="17"/>
+      <c r="AO3" s="17"/>
+      <c r="AP3" s="17"/>
+      <c r="AQ3" s="17"/>
+      <c r="AR3" s="17"/>
+      <c r="AS3" s="17"/>
+      <c r="AT3" s="17"/>
+      <c r="AU3" s="17"/>
+      <c r="AV3" s="17"/>
+      <c r="AW3" s="17"/>
+      <c r="AX3" s="17"/>
+      <c r="AY3" s="25"/>
+      <c r="AZ3" s="25"/>
+      <c r="BA3" s="25"/>
+      <c r="BB3" s="25"/>
+      <c r="BC3" s="25"/>
+      <c r="BD3" s="25"/>
+      <c r="BE3" s="25"/>
+      <c r="BF3" s="25"/>
+      <c r="BG3" s="25"/>
+      <c r="BH3" s="25"/>
+      <c r="BI3" s="25"/>
+      <c r="BJ3" s="25"/>
+      <c r="BK3" s="25"/>
+      <c r="BL3" s="25"/>
+      <c r="BM3" s="25"/>
+      <c r="BN3" s="25"/>
+      <c r="BO3" s="25"/>
+      <c r="BP3" s="25"/>
+      <c r="BQ3" s="25"/>
+      <c r="BR3" s="25"/>
+      <c r="BS3" s="25"/>
+      <c r="BT3" s="25"/>
+      <c r="BU3" s="25"/>
+      <c r="BV3" s="25"/>
+      <c r="BW3" s="25"/>
+      <c r="BX3" s="25"/>
+      <c r="BY3" s="25"/>
+      <c r="BZ3" s="25"/>
+      <c r="CA3" s="25"/>
+      <c r="CB3" s="25"/>
+      <c r="CC3" s="18"/>
+      <c r="CD3" s="18"/>
+      <c r="CE3" s="18"/>
+      <c r="CF3" s="18"/>
+      <c r="CG3" s="18"/>
+      <c r="CH3" s="18"/>
+      <c r="CI3" s="18"/>
+      <c r="CJ3" s="18"/>
+      <c r="CK3" s="18"/>
+      <c r="CL3" s="18"/>
+      <c r="CM3" s="18"/>
+      <c r="CN3" s="18"/>
+      <c r="CO3" s="18"/>
+      <c r="CP3" s="18"/>
+      <c r="CQ3" s="18"/>
+      <c r="CR3" s="18"/>
+      <c r="CS3" s="18"/>
+      <c r="CT3" s="18"/>
+      <c r="CU3" s="18"/>
+      <c r="CV3" s="18"/>
+      <c r="CW3" s="18"/>
+      <c r="CX3" s="18"/>
+      <c r="CY3" s="18"/>
+      <c r="CZ3" s="18"/>
+      <c r="DA3" s="18"/>
+      <c r="DB3" s="18"/>
+      <c r="DC3" s="18"/>
+      <c r="DD3" s="18"/>
+      <c r="DE3" s="18"/>
+      <c r="DF3" s="18"/>
+      <c r="DG3" s="18"/>
+      <c r="DH3" s="18"/>
+      <c r="DI3" s="18"/>
+      <c r="DJ3" s="18"/>
+      <c r="DK3" s="18"/>
+      <c r="DL3" s="18"/>
+    </row>
+    <row r="4" spans="1:130" ht="23" customHeight="1">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="20"/>
+      <c r="AI4" s="20"/>
+      <c r="AJ4" s="20"/>
+      <c r="AK4" s="20"/>
+      <c r="AL4" s="20"/>
+      <c r="AM4" s="20"/>
+      <c r="AN4" s="20"/>
+      <c r="AO4" s="20"/>
+      <c r="AP4" s="20"/>
+      <c r="AQ4" s="20"/>
+      <c r="AR4" s="20"/>
+      <c r="AS4" s="20"/>
+      <c r="AT4" s="20"/>
+      <c r="AU4" s="20"/>
+      <c r="AV4" s="20"/>
+      <c r="AW4" s="20"/>
+      <c r="AX4" s="20"/>
+      <c r="AY4" s="20"/>
+      <c r="AZ4" s="20"/>
+      <c r="BA4" s="20"/>
+      <c r="BB4" s="20"/>
+      <c r="BC4" s="20"/>
+      <c r="BD4" s="20"/>
+      <c r="BE4" s="20"/>
+      <c r="BF4" s="20"/>
+      <c r="BG4" s="20"/>
+      <c r="BH4" s="20"/>
+      <c r="BI4" s="20"/>
+      <c r="BJ4" s="20"/>
+      <c r="BK4" s="20"/>
+      <c r="BL4" s="20"/>
+      <c r="BM4" s="20"/>
+      <c r="BN4" s="20"/>
+      <c r="BO4" s="22"/>
+      <c r="BP4" s="22"/>
+      <c r="BQ4" s="22"/>
+      <c r="BR4" s="22"/>
+      <c r="BS4" s="22"/>
+      <c r="BT4" s="22"/>
+      <c r="BU4" s="22"/>
+      <c r="BV4" s="22"/>
+      <c r="BW4" s="22"/>
+      <c r="BX4" s="22"/>
+      <c r="BY4" s="22"/>
+      <c r="BZ4" s="22"/>
+      <c r="CA4" s="22"/>
+      <c r="CB4" s="22"/>
+      <c r="CC4" s="22"/>
+      <c r="CD4" s="22"/>
+      <c r="CE4" s="22"/>
+      <c r="CF4" s="22"/>
+      <c r="CG4" s="22"/>
+      <c r="CH4" s="22"/>
+      <c r="CI4" s="22"/>
+      <c r="CJ4" s="22"/>
+      <c r="CK4" s="22"/>
+      <c r="CL4" s="22"/>
+      <c r="CM4" s="22"/>
+      <c r="CN4" s="22"/>
+      <c r="CO4" s="22"/>
+      <c r="CP4" s="22"/>
+      <c r="CQ4" s="22"/>
+      <c r="CR4" s="22"/>
+      <c r="CS4" s="22"/>
+      <c r="CT4" s="22"/>
+      <c r="CU4" s="23"/>
+      <c r="CV4" s="23"/>
+      <c r="CW4" s="23"/>
+      <c r="CX4" s="23"/>
+      <c r="CY4" s="23"/>
+      <c r="CZ4" s="23"/>
+      <c r="DA4" s="23"/>
+      <c r="DB4" s="23"/>
+      <c r="DC4" s="23"/>
+      <c r="DD4" s="23"/>
+      <c r="DE4" s="23"/>
+      <c r="DF4" s="23"/>
+      <c r="DG4" s="23"/>
+      <c r="DH4" s="23"/>
+      <c r="DI4" s="23"/>
+      <c r="DJ4" s="23"/>
+      <c r="DK4" s="23"/>
+      <c r="DL4" s="23"/>
+      <c r="DM4" s="23"/>
+      <c r="DN4" s="23"/>
+      <c r="DO4" s="23"/>
+      <c r="DP4" s="23"/>
+      <c r="DQ4" s="23"/>
+      <c r="DR4" s="23"/>
+      <c r="DS4" s="23"/>
+      <c r="DT4" s="23"/>
+      <c r="DU4" s="23"/>
+      <c r="DV4" s="23"/>
+      <c r="DW4" s="23"/>
+      <c r="DX4" s="23"/>
+      <c r="DY4" s="23"/>
+      <c r="DZ4" s="23"/>
+    </row>
+    <row r="5" spans="1:130" ht="23" customHeight="1">
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="24"/>
+      <c r="AC5" s="24"/>
+      <c r="AD5" s="24"/>
+      <c r="AE5" s="24"/>
+      <c r="AF5" s="24"/>
+      <c r="AG5" s="24"/>
+      <c r="AH5" s="24"/>
+      <c r="AI5" s="24"/>
+      <c r="AJ5" s="24"/>
+      <c r="AK5" s="24"/>
+      <c r="AL5" s="24"/>
+      <c r="AM5" s="24"/>
+      <c r="AN5" s="24"/>
+      <c r="AO5" s="24"/>
+      <c r="AP5" s="24"/>
+      <c r="AQ5" s="24"/>
+      <c r="AR5" s="24"/>
+      <c r="AS5" s="24"/>
+      <c r="AT5" s="24"/>
+      <c r="AU5" s="24"/>
+      <c r="AV5" s="24"/>
+      <c r="AW5" s="24"/>
+      <c r="AX5" s="24"/>
+      <c r="AY5" s="24"/>
+      <c r="AZ5" s="24"/>
+      <c r="BA5" s="24"/>
+      <c r="BB5" s="24"/>
+      <c r="BC5" s="24"/>
+      <c r="BD5" s="24"/>
+      <c r="BE5" s="24"/>
+      <c r="BF5" s="24"/>
+      <c r="BG5" s="24"/>
+      <c r="BH5" s="24"/>
+      <c r="BI5" s="24"/>
+      <c r="BJ5" s="24"/>
+      <c r="BK5" s="24"/>
+      <c r="BL5" s="24"/>
+      <c r="BM5" s="24"/>
+      <c r="BN5" s="24"/>
+      <c r="BO5" s="24"/>
+      <c r="BP5" s="24"/>
+      <c r="BQ5" s="24"/>
+      <c r="BR5" s="24"/>
+      <c r="BS5" s="26"/>
+      <c r="BT5" s="26"/>
+      <c r="BU5" s="26"/>
+      <c r="BV5" s="26"/>
+      <c r="BW5" s="26"/>
+      <c r="BX5" s="26"/>
+      <c r="BY5" s="26"/>
+      <c r="BZ5" s="26"/>
+      <c r="CA5" s="26"/>
+      <c r="CB5" s="26"/>
+      <c r="CC5" s="26"/>
+      <c r="CD5" s="26"/>
+      <c r="CE5" s="26"/>
+      <c r="CF5" s="26"/>
+      <c r="CG5" s="26"/>
+      <c r="CH5" s="26"/>
+      <c r="CI5" s="26"/>
+      <c r="CJ5" s="26"/>
+      <c r="CK5" s="26"/>
+      <c r="DA5" s="27"/>
+      <c r="DB5" s="27"/>
+      <c r="DC5" s="27"/>
+      <c r="DD5" s="27"/>
+      <c r="DE5" s="27"/>
+      <c r="DF5" s="27"/>
+      <c r="DG5" s="27"/>
+      <c r="DH5" s="27"/>
+      <c r="DI5" s="27"/>
+      <c r="DJ5" s="27"/>
+      <c r="DK5" s="27"/>
+      <c r="DL5" s="27"/>
+      <c r="DM5" s="27"/>
+      <c r="DN5" s="27"/>
+      <c r="DO5" s="27"/>
+      <c r="DP5" s="27"/>
+      <c r="DQ5" s="27"/>
+      <c r="DR5" s="27"/>
+      <c r="DS5" s="27"/>
+      <c r="DT5" s="27"/>
+      <c r="DU5" s="27"/>
+      <c r="DV5" s="27"/>
+      <c r="DW5" s="27"/>
+      <c r="DX5" s="27"/>
+      <c r="DY5" s="27"/>
+      <c r="DZ5" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="C24" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DZ13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="ET23" sqref="ET23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AP2" sqref="AP2:CN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0.83203125" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0"/>
@@ -3626,7 +9868,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
